--- a/database/industries/siman/semazen/cost/quarterly.xlsx
+++ b/database/industries/siman/semazen/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C6AE30-8340-4531-AB74-4AC97FA586A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BCF064-13D3-46B6-A735-24BE89ECA395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>رس کلسینه</t>
+  </si>
+  <si>
+    <t>تن</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>رس کلسینه</t>
-  </si>
-  <si>
-    <t>تن</t>
   </si>
   <si>
     <t>مواد اولیه وارداتی</t>
@@ -743,16 +743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N232"/>
+  <dimension ref="B1:N233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -767,7 +767,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -816,7 +816,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -865,7 +865,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -902,7 +902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -917,177 +917,177 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>126056</v>
+        <v>143157</v>
       </c>
       <c r="F10" s="9">
-        <v>143157</v>
+        <v>131863</v>
       </c>
       <c r="G10" s="9">
-        <v>131863</v>
+        <v>199477</v>
       </c>
       <c r="H10" s="9">
-        <v>199477</v>
+        <v>136261</v>
       </c>
       <c r="I10" s="9">
-        <v>136261</v>
+        <v>265487</v>
       </c>
       <c r="J10" s="9">
-        <v>265487</v>
+        <v>230620</v>
       </c>
       <c r="K10" s="9">
-        <v>230620</v>
+        <v>340410</v>
       </c>
       <c r="L10" s="9">
-        <v>340410</v>
+        <v>246417</v>
       </c>
       <c r="M10" s="9">
-        <v>246417</v>
+        <v>457232</v>
       </c>
       <c r="N10" s="9">
-        <v>457232</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239176</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>21927</v>
+        <v>23182</v>
       </c>
       <c r="F11" s="11">
-        <v>23182</v>
+        <v>25906</v>
       </c>
       <c r="G11" s="11">
-        <v>25906</v>
+        <v>30494</v>
       </c>
       <c r="H11" s="11">
-        <v>30494</v>
+        <v>31447</v>
       </c>
       <c r="I11" s="11">
-        <v>31447</v>
+        <v>31094</v>
       </c>
       <c r="J11" s="11">
-        <v>31094</v>
+        <v>35352</v>
       </c>
       <c r="K11" s="11">
-        <v>35352</v>
+        <v>61576</v>
       </c>
       <c r="L11" s="11">
-        <v>61576</v>
+        <v>40236</v>
       </c>
       <c r="M11" s="11">
-        <v>40236</v>
+        <v>85416</v>
       </c>
       <c r="N11" s="11">
-        <v>85416</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>69114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>584350</v>
+        <v>636861</v>
       </c>
       <c r="F12" s="9">
-        <v>636861</v>
+        <v>673239</v>
       </c>
       <c r="G12" s="9">
-        <v>673239</v>
+        <v>978897</v>
       </c>
       <c r="H12" s="9">
-        <v>978897</v>
+        <v>874723</v>
       </c>
       <c r="I12" s="9">
-        <v>874723</v>
+        <v>1102678</v>
       </c>
       <c r="J12" s="9">
-        <v>1102678</v>
+        <v>1196186</v>
       </c>
       <c r="K12" s="9">
-        <v>1196186</v>
+        <v>1304562</v>
       </c>
       <c r="L12" s="9">
-        <v>1304562</v>
+        <v>1491885</v>
       </c>
       <c r="M12" s="9">
-        <v>1491885</v>
+        <v>1645845</v>
       </c>
       <c r="N12" s="9">
-        <v>1645845</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1340487</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>732333</v>
+        <v>803200</v>
       </c>
       <c r="F13" s="13">
-        <v>803200</v>
+        <v>831008</v>
       </c>
       <c r="G13" s="13">
-        <v>831008</v>
+        <v>1208868</v>
       </c>
       <c r="H13" s="13">
-        <v>1208868</v>
+        <v>1042431</v>
       </c>
       <c r="I13" s="13">
-        <v>1042431</v>
+        <v>1399259</v>
       </c>
       <c r="J13" s="13">
-        <v>1399259</v>
+        <v>1462158</v>
       </c>
       <c r="K13" s="13">
-        <v>1462158</v>
+        <v>1706548</v>
       </c>
       <c r="L13" s="13">
-        <v>1706548</v>
+        <v>1778538</v>
       </c>
       <c r="M13" s="13">
-        <v>1778538</v>
+        <v>2188493</v>
       </c>
       <c r="N13" s="13">
-        <v>2188493</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1648777</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>5526</v>
+        <v>-29358</v>
       </c>
       <c r="F14" s="9">
-        <v>-29358</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>-34017</v>
       </c>
       <c r="H14" s="9">
-        <v>-34017</v>
+        <v>-14669</v>
       </c>
       <c r="I14" s="9">
-        <v>-14669</v>
+        <v>-11921</v>
       </c>
       <c r="J14" s="9">
-        <v>-11921</v>
+        <v>0</v>
       </c>
       <c r="K14" s="9">
         <v>0</v>
@@ -1102,81 +1102,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>737859</v>
+        <v>773842</v>
       </c>
       <c r="F15" s="13">
-        <v>773842</v>
+        <v>831008</v>
       </c>
       <c r="G15" s="13">
-        <v>831008</v>
+        <v>1174851</v>
       </c>
       <c r="H15" s="13">
-        <v>1174851</v>
+        <v>1027762</v>
       </c>
       <c r="I15" s="13">
-        <v>1027762</v>
+        <v>1387338</v>
       </c>
       <c r="J15" s="13">
-        <v>1387338</v>
+        <v>1462158</v>
       </c>
       <c r="K15" s="13">
-        <v>1462158</v>
+        <v>1706548</v>
       </c>
       <c r="L15" s="13">
-        <v>1706548</v>
+        <v>1778538</v>
       </c>
       <c r="M15" s="13">
-        <v>1778538</v>
+        <v>2188493</v>
       </c>
       <c r="N15" s="13">
-        <v>2188493</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1648777</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-103253</v>
+        <v>13364</v>
       </c>
       <c r="F16" s="9">
-        <v>13364</v>
+        <v>125473</v>
       </c>
       <c r="G16" s="9">
-        <v>125473</v>
+        <v>-93530</v>
       </c>
       <c r="H16" s="9">
-        <v>-93530</v>
+        <v>34142</v>
       </c>
       <c r="I16" s="9">
-        <v>34142</v>
+        <v>-224784</v>
       </c>
       <c r="J16" s="9">
-        <v>-224784</v>
+        <v>-86461</v>
       </c>
       <c r="K16" s="9">
-        <v>-86461</v>
+        <v>-524200</v>
       </c>
       <c r="L16" s="9">
-        <v>-524200</v>
+        <v>411090</v>
       </c>
       <c r="M16" s="9">
-        <v>411090</v>
+        <v>-497931</v>
       </c>
       <c r="N16" s="9">
-        <v>-497931</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6421</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1213,157 +1213,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>634606</v>
+        <v>787206</v>
       </c>
       <c r="F18" s="15">
-        <v>787206</v>
+        <v>956481</v>
       </c>
       <c r="G18" s="15">
-        <v>956481</v>
+        <v>1081321</v>
       </c>
       <c r="H18" s="15">
-        <v>1081321</v>
+        <v>1061904</v>
       </c>
       <c r="I18" s="15">
-        <v>1061904</v>
+        <v>1162554</v>
       </c>
       <c r="J18" s="15">
-        <v>1162554</v>
+        <v>1375697</v>
       </c>
       <c r="K18" s="15">
-        <v>1375697</v>
+        <v>1182348</v>
       </c>
       <c r="L18" s="15">
-        <v>1182348</v>
+        <v>2189628</v>
       </c>
       <c r="M18" s="15">
-        <v>2189628</v>
+        <v>1690562</v>
       </c>
       <c r="N18" s="15">
-        <v>1690562</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1642356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>21801</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>26837</v>
       </c>
       <c r="G19" s="11">
-        <v>26837</v>
+        <v>0</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>42684</v>
       </c>
       <c r="J19" s="11">
-        <v>12061</v>
+        <v>54949</v>
       </c>
       <c r="K19" s="11">
-        <v>54949</v>
+        <v>55454</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>41691</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>40070</v>
       </c>
       <c r="N19" s="11">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>11593</v>
+        <v>-26837</v>
       </c>
       <c r="F20" s="9">
-        <v>-5036</v>
+        <v>-17489</v>
       </c>
       <c r="G20" s="9">
-        <v>-17489</v>
+        <v>-13134</v>
       </c>
       <c r="H20" s="9">
-        <v>-13134</v>
+        <v>-12061</v>
       </c>
       <c r="I20" s="9">
-        <v>-12061</v>
-      </c>
-      <c r="J20" s="9" t="s">
+        <v>-54949</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-55454</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-41691</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-40070</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-81132</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-86435</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-55454</v>
-      </c>
-      <c r="L20" s="9">
-        <v>13763</v>
-      </c>
-      <c r="M20" s="9">
-        <v>1621</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>646199</v>
+        <v>782170</v>
       </c>
       <c r="F21" s="13">
-        <v>782170</v>
+        <v>965829</v>
       </c>
       <c r="G21" s="13">
-        <v>965829</v>
+        <v>1068187</v>
       </c>
       <c r="H21" s="13">
-        <v>1068187</v>
+        <v>1049843</v>
       </c>
       <c r="I21" s="13">
-        <v>1049843</v>
+        <v>1150289</v>
       </c>
       <c r="J21" s="13">
-        <v>1150289</v>
+        <v>1375192</v>
       </c>
       <c r="K21" s="13">
-        <v>1375192</v>
+        <v>1196111</v>
       </c>
       <c r="L21" s="13">
-        <v>1196111</v>
+        <v>2191249</v>
       </c>
       <c r="M21" s="13">
-        <v>2191249</v>
+        <v>1649500</v>
       </c>
       <c r="N21" s="13">
-        <v>1649500</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1637053</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1398,44 +1398,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>646199</v>
+        <v>782170</v>
       </c>
       <c r="F23" s="13">
-        <v>782170</v>
+        <v>965829</v>
       </c>
       <c r="G23" s="13">
-        <v>965829</v>
+        <v>1068187</v>
       </c>
       <c r="H23" s="13">
-        <v>1068187</v>
+        <v>1049843</v>
       </c>
       <c r="I23" s="13">
-        <v>1049843</v>
+        <v>1150289</v>
       </c>
       <c r="J23" s="13">
-        <v>1150289</v>
+        <v>1375192</v>
       </c>
       <c r="K23" s="13">
-        <v>1375192</v>
+        <v>1196111</v>
       </c>
       <c r="L23" s="13">
-        <v>1196111</v>
+        <v>2191249</v>
       </c>
       <c r="M23" s="13">
-        <v>2191249</v>
+        <v>1649500</v>
       </c>
       <c r="N23" s="13">
-        <v>1649500</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1637053</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1450,7 +1450,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1465,7 +1465,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1480,9 +1480,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1517,7 +1517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1532,46 +1532,46 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1580,198 +1580,198 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>179979</v>
+        <v>186929</v>
       </c>
       <c r="F31" s="9">
-        <v>186929</v>
+        <v>167571</v>
       </c>
       <c r="G31" s="9">
-        <v>167571</v>
+        <v>115867</v>
       </c>
       <c r="H31" s="9">
-        <v>115867</v>
+        <v>168522</v>
       </c>
       <c r="I31" s="9">
-        <v>168522</v>
+        <v>279201</v>
       </c>
       <c r="J31" s="9">
-        <v>279201</v>
+        <v>269962</v>
       </c>
       <c r="K31" s="9">
-        <v>269962</v>
+        <v>245224</v>
       </c>
       <c r="L31" s="9">
-        <v>245224</v>
+        <v>221939</v>
       </c>
       <c r="M31" s="9">
-        <v>221939</v>
+        <v>305870</v>
       </c>
       <c r="N31" s="9">
-        <v>305870</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>242758</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>6530</v>
+        <v>38092</v>
       </c>
       <c r="F32" s="11">
-        <v>38092</v>
+        <v>32092</v>
       </c>
       <c r="G32" s="11">
-        <v>32092</v>
+        <v>16499</v>
       </c>
       <c r="H32" s="11">
-        <v>16499</v>
+        <v>31943</v>
       </c>
       <c r="I32" s="11">
-        <v>31943</v>
+        <v>19022</v>
       </c>
       <c r="J32" s="11">
-        <v>19022</v>
+        <v>5692</v>
       </c>
       <c r="K32" s="11">
-        <v>5692</v>
+        <v>2420</v>
       </c>
       <c r="L32" s="11">
-        <v>2420</v>
+        <v>41442</v>
       </c>
       <c r="M32" s="11">
-        <v>41442</v>
+        <v>56930</v>
       </c>
       <c r="N32" s="11">
-        <v>56930</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>60600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>25510</v>
+        <v>13644</v>
       </c>
       <c r="F33" s="9">
-        <v>13644</v>
+        <v>10270</v>
       </c>
       <c r="G33" s="9">
-        <v>10270</v>
+        <v>19007</v>
       </c>
       <c r="H33" s="9">
-        <v>19007</v>
+        <v>18826</v>
       </c>
       <c r="I33" s="9">
-        <v>18826</v>
+        <v>50199</v>
       </c>
       <c r="J33" s="9">
-        <v>50199</v>
+        <v>38574</v>
       </c>
       <c r="K33" s="9">
-        <v>38574</v>
+        <v>29955</v>
       </c>
       <c r="L33" s="9">
-        <v>29955</v>
+        <v>24424</v>
       </c>
       <c r="M33" s="9">
-        <v>24424</v>
+        <v>41280</v>
       </c>
       <c r="N33" s="9">
-        <v>41280</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40173</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F34" s="11">
+        <v>8313</v>
       </c>
       <c r="G34" s="11">
-        <v>8313</v>
+        <v>12881</v>
       </c>
       <c r="H34" s="11">
-        <v>12881</v>
+        <v>13496</v>
       </c>
       <c r="I34" s="11">
-        <v>13496</v>
+        <v>32333</v>
       </c>
       <c r="J34" s="11">
-        <v>32333</v>
+        <v>41643</v>
       </c>
       <c r="K34" s="11">
-        <v>41643</v>
+        <v>62210</v>
       </c>
       <c r="L34" s="11">
-        <v>62210</v>
-      </c>
-      <c r="M34" s="11">
         <v>45284</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="11">
+        <v>60310</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
@@ -1784,16 +1784,16 @@
         <v>15051</v>
       </c>
       <c r="H35" s="9">
-        <v>15051</v>
+        <v>14896</v>
       </c>
       <c r="I35" s="9">
-        <v>14896</v>
+        <v>13177</v>
       </c>
       <c r="J35" s="9">
-        <v>13177</v>
+        <v>12302</v>
       </c>
       <c r="K35" s="9">
-        <v>12302</v>
+        <v>11820</v>
       </c>
       <c r="L35" s="9">
         <v>11820</v>
@@ -1805,85 +1805,85 @@
         <v>11820</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>276593</v>
+        <v>171356</v>
       </c>
       <c r="F36" s="11">
-        <v>171356</v>
-      </c>
-      <c r="G36" s="11">
         <v>156603</v>
       </c>
+      <c r="G36" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H36" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I36" s="11">
+        <v>465942</v>
       </c>
       <c r="J36" s="11">
-        <v>465942</v>
+        <v>436007</v>
       </c>
       <c r="K36" s="11">
-        <v>436007</v>
+        <v>524508</v>
       </c>
       <c r="L36" s="11">
-        <v>524508</v>
+        <v>466395</v>
       </c>
       <c r="M36" s="11">
-        <v>466395</v>
+        <v>681628</v>
       </c>
       <c r="N36" s="11">
-        <v>681628</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>538590</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>41</v>
       </c>
@@ -1892,74 +1892,74 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
+      <c r="H38" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>503663</v>
+        <v>425072</v>
       </c>
       <c r="F39" s="15">
-        <v>425072</v>
+        <v>389900</v>
       </c>
       <c r="G39" s="15">
-        <v>389900</v>
+        <v>179305</v>
       </c>
       <c r="H39" s="15">
-        <v>179305</v>
+        <v>247683</v>
       </c>
       <c r="I39" s="15">
-        <v>247683</v>
+        <v>859874</v>
       </c>
       <c r="J39" s="15">
-        <v>859874</v>
+        <v>804180</v>
       </c>
       <c r="K39" s="15">
-        <v>804180</v>
+        <v>876137</v>
       </c>
       <c r="L39" s="15">
-        <v>876137</v>
+        <v>811304</v>
       </c>
       <c r="M39" s="15">
-        <v>811304</v>
+        <v>1097528</v>
       </c>
       <c r="N39" s="15">
-        <v>1097528</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>956022</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1974,7 +1974,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1989,7 +1989,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2004,7 +2004,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>42</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2056,46 +2056,46 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M45" s="9">
+        <v>1771</v>
       </c>
       <c r="N45" s="9">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>32</v>
       </c>
@@ -2104,198 +2104,198 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>209578</v>
+        <v>173347</v>
       </c>
       <c r="F47" s="9">
-        <v>173347</v>
+        <v>92683</v>
       </c>
       <c r="G47" s="9">
-        <v>92683</v>
+        <v>265508</v>
       </c>
       <c r="H47" s="9">
-        <v>265508</v>
+        <v>199725</v>
       </c>
       <c r="I47" s="9">
-        <v>199725</v>
+        <v>169193</v>
       </c>
       <c r="J47" s="9">
-        <v>169193</v>
+        <v>126906</v>
       </c>
       <c r="K47" s="9">
-        <v>126906</v>
+        <v>207801</v>
       </c>
       <c r="L47" s="9">
-        <v>207801</v>
+        <v>183591</v>
       </c>
       <c r="M47" s="9">
-        <v>183591</v>
+        <v>151175</v>
       </c>
       <c r="N47" s="9">
-        <v>151175</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114617</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>44870</v>
+        <v>17466</v>
       </c>
       <c r="F48" s="11">
-        <v>17466</v>
+        <v>6527</v>
       </c>
       <c r="G48" s="11">
-        <v>6527</v>
+        <v>36347</v>
       </c>
       <c r="H48" s="11">
-        <v>36347</v>
+        <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>0</v>
+        <v>10357</v>
       </c>
       <c r="J48" s="11">
-        <v>10357</v>
+        <v>8445</v>
       </c>
       <c r="K48" s="11">
-        <v>8445</v>
+        <v>58331</v>
       </c>
       <c r="L48" s="11">
-        <v>58331</v>
+        <v>32569</v>
       </c>
       <c r="M48" s="11">
-        <v>32569</v>
+        <v>39352</v>
       </c>
       <c r="N48" s="11">
-        <v>39352</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22357</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>15880</v>
+        <v>29915</v>
       </c>
       <c r="F49" s="9">
-        <v>29915</v>
+        <v>40564</v>
       </c>
       <c r="G49" s="9">
-        <v>40564</v>
+        <v>33507</v>
       </c>
       <c r="H49" s="9">
-        <v>33507</v>
+        <v>54407</v>
       </c>
       <c r="I49" s="9">
-        <v>54407</v>
+        <v>15555</v>
       </c>
       <c r="J49" s="9">
-        <v>15555</v>
+        <v>17331</v>
       </c>
       <c r="K49" s="9">
-        <v>17331</v>
+        <v>19782</v>
       </c>
       <c r="L49" s="9">
-        <v>19782</v>
+        <v>46196</v>
       </c>
       <c r="M49" s="9">
-        <v>46196</v>
+        <v>29395</v>
       </c>
       <c r="N49" s="9">
-        <v>29395</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27546</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>25</v>
+      <c r="E50" s="11">
+        <v>53834</v>
       </c>
       <c r="F50" s="11">
-        <v>53834</v>
+        <v>19349</v>
       </c>
       <c r="G50" s="11">
-        <v>19349</v>
+        <v>24957</v>
       </c>
       <c r="H50" s="11">
-        <v>24957</v>
+        <v>32600</v>
       </c>
       <c r="I50" s="11">
-        <v>32600</v>
+        <v>35263</v>
       </c>
       <c r="J50" s="11">
-        <v>35263</v>
+        <v>41892</v>
       </c>
       <c r="K50" s="11">
-        <v>41892</v>
+        <v>9047</v>
       </c>
       <c r="L50" s="11">
-        <v>9047</v>
-      </c>
-      <c r="M50" s="11">
         <v>15775</v>
       </c>
-      <c r="N50" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="11">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
@@ -2329,85 +2329,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>770697</v>
+        <v>697805</v>
       </c>
       <c r="F52" s="11">
-        <v>697805</v>
-      </c>
-      <c r="G52" s="11">
         <v>701161</v>
       </c>
-      <c r="H52" s="11" t="s">
-        <v>25</v>
+      <c r="G52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="11">
+        <v>2007092</v>
       </c>
       <c r="I52" s="11">
-        <v>2007092</v>
+        <v>767658</v>
       </c>
       <c r="J52" s="11">
-        <v>767658</v>
+        <v>721720</v>
       </c>
       <c r="K52" s="11">
-        <v>721720</v>
+        <v>819006</v>
       </c>
       <c r="L52" s="11">
-        <v>819006</v>
+        <v>554652</v>
       </c>
       <c r="M52" s="11">
-        <v>554652</v>
+        <v>786431</v>
       </c>
       <c r="N52" s="11">
-        <v>786431</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>307751</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="9">
+        <v>31</v>
+      </c>
+      <c r="G53" s="9">
         <v>1496006</v>
       </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="9">
+        <v>31</v>
+      </c>
+      <c r="M53" s="9">
         <v>106891</v>
       </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>41</v>
       </c>
@@ -2416,74 +2416,74 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
+      <c r="H54" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>1041025</v>
+        <v>972367</v>
       </c>
       <c r="F55" s="15">
-        <v>972367</v>
+        <v>860284</v>
       </c>
       <c r="G55" s="15">
-        <v>860284</v>
+        <v>1856325</v>
       </c>
       <c r="H55" s="15">
-        <v>1856325</v>
+        <v>2293824</v>
       </c>
       <c r="I55" s="15">
-        <v>2293824</v>
+        <v>998026</v>
       </c>
       <c r="J55" s="15">
-        <v>998026</v>
+        <v>916294</v>
       </c>
       <c r="K55" s="15">
-        <v>916294</v>
+        <v>1113967</v>
       </c>
       <c r="L55" s="15">
-        <v>1113967</v>
+        <v>832783</v>
       </c>
       <c r="M55" s="15">
-        <v>832783</v>
+        <v>1115015</v>
       </c>
       <c r="N55" s="15">
-        <v>1115015</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>476118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2498,7 +2498,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2513,7 +2513,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2528,7 +2528,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>44</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2580,46 +2580,46 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
       </c>
       <c r="N61" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>32</v>
       </c>
@@ -2628,198 +2628,198 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>202628</v>
+        <v>192705</v>
       </c>
       <c r="F63" s="9">
-        <v>192705</v>
+        <v>144387</v>
       </c>
       <c r="G63" s="9">
-        <v>144387</v>
+        <v>212853</v>
       </c>
       <c r="H63" s="9">
-        <v>212853</v>
+        <v>89046</v>
       </c>
       <c r="I63" s="9">
-        <v>89046</v>
+        <v>178432</v>
       </c>
       <c r="J63" s="9">
-        <v>178432</v>
+        <v>151644</v>
       </c>
       <c r="K63" s="9">
-        <v>151644</v>
+        <v>224542</v>
       </c>
       <c r="L63" s="9">
-        <v>224542</v>
+        <v>99660</v>
       </c>
       <c r="M63" s="9">
-        <v>99660</v>
+        <v>214287</v>
       </c>
       <c r="N63" s="9">
-        <v>214287</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100320</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>13308</v>
+        <v>23466</v>
       </c>
       <c r="F64" s="11">
-        <v>23466</v>
+        <v>22120</v>
       </c>
       <c r="G64" s="11">
-        <v>22120</v>
+        <v>20903</v>
       </c>
       <c r="H64" s="11">
-        <v>20903</v>
+        <v>12921</v>
       </c>
       <c r="I64" s="11">
-        <v>12921</v>
+        <v>23687</v>
       </c>
       <c r="J64" s="11">
-        <v>23687</v>
+        <v>11717</v>
       </c>
       <c r="K64" s="11">
-        <v>11717</v>
+        <v>19309</v>
       </c>
       <c r="L64" s="11">
-        <v>19309</v>
+        <v>17081</v>
       </c>
       <c r="M64" s="11">
-        <v>17081</v>
+        <v>35682</v>
       </c>
       <c r="N64" s="11">
-        <v>35682</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18097</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>27746</v>
+        <v>33289</v>
       </c>
       <c r="F65" s="9">
-        <v>33289</v>
+        <v>31827</v>
       </c>
       <c r="G65" s="9">
-        <v>31827</v>
+        <v>33688</v>
       </c>
       <c r="H65" s="9">
-        <v>33688</v>
+        <v>23034</v>
       </c>
       <c r="I65" s="9">
-        <v>23034</v>
+        <v>27181</v>
       </c>
       <c r="J65" s="9">
-        <v>27181</v>
+        <v>25950</v>
       </c>
       <c r="K65" s="9">
-        <v>25950</v>
+        <v>25312</v>
       </c>
       <c r="L65" s="9">
-        <v>25312</v>
+        <v>29340</v>
       </c>
       <c r="M65" s="9">
-        <v>29340</v>
+        <v>30502</v>
       </c>
       <c r="N65" s="9">
-        <v>30502</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22884</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>25</v>
+      <c r="E66" s="11">
+        <v>46465</v>
       </c>
       <c r="F66" s="11">
-        <v>46465</v>
+        <v>14781</v>
       </c>
       <c r="G66" s="11">
-        <v>14781</v>
+        <v>24342</v>
       </c>
       <c r="H66" s="11">
-        <v>24342</v>
+        <v>13763</v>
       </c>
       <c r="I66" s="11">
-        <v>13763</v>
+        <v>25954</v>
       </c>
       <c r="J66" s="11">
-        <v>25954</v>
+        <v>21325</v>
       </c>
       <c r="K66" s="11">
-        <v>21325</v>
+        <v>25973</v>
       </c>
       <c r="L66" s="11">
-        <v>25973</v>
-      </c>
-      <c r="M66" s="11">
         <v>13564</v>
       </c>
-      <c r="N66" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M66" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" s="11">
+        <v>12497</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
@@ -2829,19 +2829,19 @@
         <v>0</v>
       </c>
       <c r="G67" s="9">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H67" s="9">
-        <v>155</v>
+        <v>1719</v>
       </c>
       <c r="I67" s="9">
-        <v>1719</v>
+        <v>875</v>
       </c>
       <c r="J67" s="9">
-        <v>875</v>
+        <v>482</v>
       </c>
       <c r="K67" s="9">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="L67" s="9">
         <v>0</v>
@@ -2853,85 +2853,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>875934</v>
+        <v>712558</v>
       </c>
       <c r="F68" s="11">
-        <v>712558</v>
-      </c>
-      <c r="G68" s="11">
         <v>498620</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>25</v>
+      <c r="G68" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="11">
+        <v>1697753</v>
       </c>
       <c r="I68" s="11">
-        <v>1697753</v>
+        <v>797594</v>
       </c>
       <c r="J68" s="11">
-        <v>797594</v>
+        <v>633219</v>
       </c>
       <c r="K68" s="11">
-        <v>633219</v>
+        <v>877119</v>
       </c>
       <c r="L68" s="11">
-        <v>877119</v>
+        <v>339419</v>
       </c>
       <c r="M68" s="11">
-        <v>339419</v>
+        <v>929468</v>
       </c>
       <c r="N68" s="11">
-        <v>929468</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>376658</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" s="9">
+        <v>31</v>
+      </c>
+      <c r="G69" s="9">
         <v>1294440</v>
       </c>
+      <c r="H69" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="9">
+        <v>31</v>
+      </c>
+      <c r="M69" s="9">
         <v>88223</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>41</v>
       </c>
@@ -2940,74 +2940,74 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0</v>
       </c>
       <c r="G70" s="11">
         <v>0</v>
       </c>
-      <c r="H70" s="11">
-        <v>0</v>
+      <c r="H70" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
-        <v>1119616</v>
+        <v>1008483</v>
       </c>
       <c r="F71" s="15">
-        <v>1008483</v>
+        <v>711735</v>
       </c>
       <c r="G71" s="15">
-        <v>711735</v>
+        <v>1586381</v>
       </c>
       <c r="H71" s="15">
-        <v>1586381</v>
+        <v>1838236</v>
       </c>
       <c r="I71" s="15">
-        <v>1838236</v>
+        <v>1053723</v>
       </c>
       <c r="J71" s="15">
-        <v>1053723</v>
+        <v>844337</v>
       </c>
       <c r="K71" s="15">
-        <v>844337</v>
+        <v>1172255</v>
       </c>
       <c r="L71" s="15">
-        <v>1172255</v>
+        <v>499064</v>
       </c>
       <c r="M71" s="15">
-        <v>499064</v>
+        <v>1298162</v>
       </c>
       <c r="N71" s="15">
-        <v>1298162</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>530456</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3022,7 +3022,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3037,7 +3037,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3052,7 +3052,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>45</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3104,46 +3104,46 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M77" s="9">
+        <v>1771</v>
       </c>
       <c r="N77" s="9">
         <v>1771</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>32</v>
       </c>
@@ -3152,198 +3152,198 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N78" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>186929</v>
+        <v>167571</v>
       </c>
       <c r="F79" s="9">
-        <v>167571</v>
+        <v>115867</v>
       </c>
       <c r="G79" s="9">
-        <v>115867</v>
+        <v>168522</v>
       </c>
       <c r="H79" s="9">
-        <v>168522</v>
+        <v>279201</v>
       </c>
       <c r="I79" s="9">
-        <v>279201</v>
+        <v>269962</v>
       </c>
       <c r="J79" s="9">
-        <v>269962</v>
+        <v>245224</v>
       </c>
       <c r="K79" s="9">
-        <v>245224</v>
+        <v>221939</v>
       </c>
       <c r="L79" s="9">
-        <v>221939</v>
+        <v>305870</v>
       </c>
       <c r="M79" s="9">
-        <v>305870</v>
+        <v>242758</v>
       </c>
       <c r="N79" s="9">
-        <v>242758</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>257055</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>38092</v>
+        <v>32092</v>
       </c>
       <c r="F80" s="11">
-        <v>32092</v>
+        <v>16499</v>
       </c>
       <c r="G80" s="11">
-        <v>16499</v>
+        <v>31943</v>
       </c>
       <c r="H80" s="11">
-        <v>31943</v>
+        <v>19022</v>
       </c>
       <c r="I80" s="11">
-        <v>19022</v>
+        <v>5692</v>
       </c>
       <c r="J80" s="11">
-        <v>5692</v>
+        <v>2420</v>
       </c>
       <c r="K80" s="11">
-        <v>2420</v>
+        <v>41442</v>
       </c>
       <c r="L80" s="11">
-        <v>41442</v>
+        <v>56930</v>
       </c>
       <c r="M80" s="11">
-        <v>56930</v>
+        <v>60600</v>
       </c>
       <c r="N80" s="11">
-        <v>60600</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64860</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>13644</v>
+        <v>10270</v>
       </c>
       <c r="F81" s="9">
-        <v>10270</v>
+        <v>19007</v>
       </c>
       <c r="G81" s="9">
-        <v>19007</v>
+        <v>18826</v>
       </c>
       <c r="H81" s="9">
-        <v>18826</v>
+        <v>50199</v>
       </c>
       <c r="I81" s="9">
-        <v>50199</v>
+        <v>38573</v>
       </c>
       <c r="J81" s="9">
-        <v>38573</v>
+        <v>29955</v>
       </c>
       <c r="K81" s="9">
-        <v>29955</v>
+        <v>24424</v>
       </c>
       <c r="L81" s="9">
-        <v>24424</v>
+        <v>41280</v>
       </c>
       <c r="M81" s="9">
-        <v>41280</v>
+        <v>40173</v>
       </c>
       <c r="N81" s="9">
-        <v>40173</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>25</v>
+      <c r="E82" s="11">
+        <v>8313</v>
       </c>
       <c r="F82" s="11">
-        <v>8313</v>
+        <v>12881</v>
       </c>
       <c r="G82" s="11">
-        <v>12881</v>
+        <v>13496</v>
       </c>
       <c r="H82" s="11">
-        <v>13496</v>
+        <v>32333</v>
       </c>
       <c r="I82" s="11">
-        <v>32333</v>
+        <v>41642</v>
       </c>
       <c r="J82" s="11">
-        <v>41642</v>
+        <v>62210</v>
       </c>
       <c r="K82" s="11">
-        <v>62210</v>
+        <v>45284</v>
       </c>
       <c r="L82" s="11">
-        <v>45284</v>
-      </c>
-      <c r="M82" s="11">
         <v>47495</v>
       </c>
-      <c r="N82" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" s="11">
+        <v>51660</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
@@ -3353,16 +3353,16 @@
         <v>15051</v>
       </c>
       <c r="G83" s="9">
-        <v>15051</v>
+        <v>14896</v>
       </c>
       <c r="H83" s="9">
-        <v>14896</v>
+        <v>13177</v>
       </c>
       <c r="I83" s="9">
-        <v>13177</v>
+        <v>12302</v>
       </c>
       <c r="J83" s="9">
-        <v>12302</v>
+        <v>11820</v>
       </c>
       <c r="K83" s="9">
         <v>11820</v>
@@ -3377,85 +3377,85 @@
         <v>11820</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>171356</v>
+        <v>156603</v>
       </c>
       <c r="F84" s="11">
-        <v>156603</v>
-      </c>
-      <c r="G84" s="11">
         <v>359144</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>25</v>
+      <c r="G84" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="11">
+        <v>465942</v>
       </c>
       <c r="I84" s="11">
-        <v>465942</v>
+        <v>436006</v>
       </c>
       <c r="J84" s="11">
-        <v>436006</v>
+        <v>524508</v>
       </c>
       <c r="K84" s="11">
-        <v>524508</v>
+        <v>466395</v>
       </c>
       <c r="L84" s="11">
-        <v>466395</v>
+        <v>681628</v>
       </c>
       <c r="M84" s="11">
-        <v>681628</v>
+        <v>538590</v>
       </c>
       <c r="N84" s="11">
-        <v>538590</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>469683</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9">
-        <v>340</v>
+      <c r="E85" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" s="9">
+        <v>31</v>
+      </c>
+      <c r="G85" s="9">
         <v>358169</v>
       </c>
+      <c r="H85" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N85" s="9">
+        <v>31</v>
+      </c>
+      <c r="M85" s="9">
         <v>60310</v>
       </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>41</v>
       </c>
@@ -3464,74 +3464,74 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
       </c>
       <c r="G86" s="11">
         <v>0</v>
       </c>
-      <c r="H86" s="11">
-        <v>0</v>
+      <c r="H86" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N86" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>425412</v>
+        <v>389900</v>
       </c>
       <c r="F87" s="15">
-        <v>389900</v>
+        <v>538449</v>
       </c>
       <c r="G87" s="15">
-        <v>538449</v>
+        <v>605852</v>
       </c>
       <c r="H87" s="15">
-        <v>605852</v>
+        <v>859874</v>
       </c>
       <c r="I87" s="15">
-        <v>859874</v>
+        <v>804177</v>
       </c>
       <c r="J87" s="15">
-        <v>804177</v>
+        <v>876137</v>
       </c>
       <c r="K87" s="15">
-        <v>876137</v>
+        <v>811304</v>
       </c>
       <c r="L87" s="15">
-        <v>811304</v>
+        <v>1145023</v>
       </c>
       <c r="M87" s="15">
-        <v>1145023</v>
+        <v>956022</v>
       </c>
       <c r="N87" s="15">
-        <v>956022</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>901684</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3546,7 +3546,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3561,7 +3561,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3576,7 +3576,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>46</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3628,46 +3628,46 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="N93" s="9">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>32</v>
       </c>
@@ -3676,37 +3676,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N94" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>34</v>
       </c>
@@ -3715,37 +3715,37 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>8599</v>
+        <v>9562</v>
       </c>
       <c r="F95" s="9">
-        <v>9562</v>
+        <v>8742</v>
       </c>
       <c r="G95" s="9">
-        <v>8742</v>
+        <v>6000</v>
       </c>
       <c r="H95" s="9">
-        <v>6000</v>
+        <v>10723</v>
       </c>
       <c r="I95" s="9">
-        <v>10723</v>
+        <v>21548</v>
       </c>
       <c r="J95" s="9">
-        <v>21548</v>
+        <v>21402</v>
       </c>
       <c r="K95" s="9">
-        <v>21402</v>
+        <v>19274</v>
       </c>
       <c r="L95" s="9">
-        <v>19274</v>
+        <v>22032</v>
       </c>
       <c r="M95" s="9">
-        <v>22032</v>
+        <v>30957</v>
       </c>
       <c r="N95" s="9">
-        <v>30957</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25914</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>35</v>
       </c>
@@ -3754,37 +3754,37 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>3257</v>
+        <v>19953</v>
       </c>
       <c r="F96" s="11">
-        <v>19953</v>
+        <v>17470</v>
       </c>
       <c r="G96" s="11">
-        <v>17470</v>
+        <v>8114</v>
       </c>
       <c r="H96" s="11">
-        <v>8114</v>
+        <v>21309</v>
       </c>
       <c r="I96" s="11">
-        <v>21309</v>
+        <v>12689</v>
       </c>
       <c r="J96" s="11">
-        <v>12689</v>
+        <v>6798</v>
       </c>
       <c r="K96" s="11">
-        <v>6798</v>
+        <v>3172</v>
       </c>
       <c r="L96" s="11">
-        <v>3172</v>
+        <v>42256</v>
       </c>
       <c r="M96" s="11">
-        <v>42256</v>
+        <v>56704</v>
       </c>
       <c r="N96" s="11">
-        <v>56704</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>63148</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>36</v>
       </c>
@@ -3793,37 +3793,37 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>12936</v>
+        <v>8814</v>
       </c>
       <c r="F97" s="9">
-        <v>8814</v>
+        <v>9040</v>
       </c>
       <c r="G97" s="9">
-        <v>9040</v>
+        <v>13109</v>
       </c>
       <c r="H97" s="9">
-        <v>13109</v>
+        <v>22504</v>
       </c>
       <c r="I97" s="9">
-        <v>22504</v>
+        <v>62214</v>
       </c>
       <c r="J97" s="9">
-        <v>62214</v>
+        <v>47925</v>
       </c>
       <c r="K97" s="9">
-        <v>47925</v>
+        <v>37151</v>
       </c>
       <c r="L97" s="9">
-        <v>37151</v>
+        <v>36936</v>
       </c>
       <c r="M97" s="9">
-        <v>36936</v>
+        <v>76633</v>
       </c>
       <c r="N97" s="9">
-        <v>76633</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80055</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>37</v>
       </c>
@@ -3832,37 +3832,37 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F98" s="11">
+        <v>5640</v>
       </c>
       <c r="G98" s="11">
-        <v>5640</v>
+        <v>14229</v>
       </c>
       <c r="H98" s="11">
-        <v>14229</v>
+        <v>34085</v>
       </c>
       <c r="I98" s="11">
-        <v>34085</v>
+        <v>87071</v>
       </c>
       <c r="J98" s="11">
-        <v>87071</v>
+        <v>118552</v>
       </c>
       <c r="K98" s="11">
-        <v>118552</v>
+        <v>181680</v>
       </c>
       <c r="L98" s="11">
-        <v>181680</v>
-      </c>
-      <c r="M98" s="11">
         <v>135402</v>
       </c>
-      <c r="N98" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N98" s="11">
+        <v>224045</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>38</v>
       </c>
@@ -3874,22 +3874,22 @@
         <v>2566</v>
       </c>
       <c r="F99" s="9">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="G99" s="9">
         <v>2565</v>
       </c>
       <c r="H99" s="9">
-        <v>2565</v>
+        <v>2539</v>
       </c>
       <c r="I99" s="9">
-        <v>2539</v>
+        <v>2247</v>
       </c>
       <c r="J99" s="9">
-        <v>2247</v>
+        <v>2097</v>
       </c>
       <c r="K99" s="9">
-        <v>2097</v>
+        <v>2015</v>
       </c>
       <c r="L99" s="9">
         <v>2015</v>
@@ -3901,7 +3901,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>39</v>
       </c>
@@ -3910,37 +3910,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>23494</v>
+        <v>15595</v>
       </c>
       <c r="F100" s="11">
-        <v>15595</v>
-      </c>
-      <c r="G100" s="11">
         <v>16057</v>
       </c>
+      <c r="G100" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H100" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I100" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I100" s="11">
+        <v>64347</v>
       </c>
       <c r="J100" s="11">
-        <v>64347</v>
+        <v>69621</v>
       </c>
       <c r="K100" s="11">
-        <v>69621</v>
+        <v>84223</v>
       </c>
       <c r="L100" s="11">
-        <v>84223</v>
+        <v>123367</v>
       </c>
       <c r="M100" s="11">
-        <v>123367</v>
+        <v>170357</v>
       </c>
       <c r="N100" s="11">
-        <v>170357</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>162219</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>40</v>
       </c>
@@ -3949,37 +3949,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>41</v>
       </c>
@@ -3988,74 +3988,74 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F102" s="11">
+        <v>0</v>
       </c>
       <c r="G102" s="11">
         <v>0</v>
       </c>
-      <c r="H102" s="11">
-        <v>0</v>
+      <c r="H102" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M102" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N102" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>50852</v>
+        <v>56490</v>
       </c>
       <c r="F103" s="15">
-        <v>56490</v>
+        <v>59514</v>
       </c>
       <c r="G103" s="15">
-        <v>59514</v>
+        <v>44017</v>
       </c>
       <c r="H103" s="15">
-        <v>44017</v>
+        <v>91160</v>
       </c>
       <c r="I103" s="15">
-        <v>91160</v>
+        <v>250116</v>
       </c>
       <c r="J103" s="15">
-        <v>250116</v>
+        <v>266395</v>
       </c>
       <c r="K103" s="15">
-        <v>266395</v>
+        <v>327515</v>
       </c>
       <c r="L103" s="15">
-        <v>327515</v>
+        <v>362008</v>
       </c>
       <c r="M103" s="15">
-        <v>362008</v>
+        <v>336666</v>
       </c>
       <c r="N103" s="15">
-        <v>336666</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>558849</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4070,7 +4070,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4085,7 +4085,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4100,7 +4100,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>47</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4152,46 +4152,46 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M109" s="9">
+        <v>1453</v>
       </c>
       <c r="N109" s="9">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -4200,37 +4200,37 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G110" s="11">
+        <v>0</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L110" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M110" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N110" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>34</v>
       </c>
@@ -4239,37 +4239,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>11107</v>
+        <v>9188</v>
       </c>
       <c r="F111" s="9">
-        <v>9188</v>
+        <v>4912</v>
       </c>
       <c r="G111" s="9">
-        <v>4912</v>
+        <v>17314</v>
       </c>
       <c r="H111" s="9">
-        <v>17314</v>
+        <v>17176</v>
       </c>
       <c r="I111" s="9">
-        <v>17176</v>
+        <v>13988</v>
       </c>
       <c r="J111" s="9">
-        <v>13988</v>
+        <v>10914</v>
       </c>
       <c r="K111" s="9">
-        <v>10914</v>
+        <v>22858</v>
       </c>
       <c r="L111" s="9">
-        <v>22858</v>
+        <v>20195</v>
       </c>
       <c r="M111" s="9">
-        <v>20195</v>
+        <v>16629</v>
       </c>
       <c r="N111" s="9">
-        <v>16629</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16390</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>35</v>
       </c>
@@ -4278,37 +4278,37 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>23606</v>
+        <v>9974</v>
       </c>
       <c r="F112" s="11">
-        <v>9974</v>
+        <v>3916</v>
       </c>
       <c r="G112" s="11">
-        <v>3916</v>
+        <v>25443</v>
       </c>
       <c r="H112" s="11">
-        <v>25443</v>
+        <v>0</v>
       </c>
       <c r="I112" s="11">
-        <v>0</v>
+        <v>13464</v>
       </c>
       <c r="J112" s="11">
-        <v>13464</v>
+        <v>11908</v>
       </c>
       <c r="K112" s="11">
-        <v>11908</v>
+        <v>58238</v>
       </c>
       <c r="L112" s="11">
-        <v>58238</v>
+        <v>34198</v>
       </c>
       <c r="M112" s="11">
-        <v>34198</v>
+        <v>41310</v>
       </c>
       <c r="N112" s="11">
-        <v>41310</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23475</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>36</v>
       </c>
@@ -4317,37 +4317,37 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>11910</v>
+        <v>26620</v>
       </c>
       <c r="F113" s="9">
-        <v>26620</v>
+        <v>35896</v>
       </c>
       <c r="G113" s="9">
-        <v>35896</v>
+        <v>45614</v>
       </c>
       <c r="H113" s="9">
-        <v>45614</v>
+        <v>68009</v>
       </c>
       <c r="I113" s="9">
-        <v>68009</v>
+        <v>19443</v>
       </c>
       <c r="J113" s="9">
-        <v>19443</v>
+        <v>21664</v>
       </c>
       <c r="K113" s="9">
-        <v>21664</v>
+        <v>32055</v>
       </c>
       <c r="L113" s="9">
-        <v>32055</v>
+        <v>94701</v>
       </c>
       <c r="M113" s="9">
-        <v>94701</v>
+        <v>60814</v>
       </c>
       <c r="N113" s="9">
-        <v>60814</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57846</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>37</v>
       </c>
@@ -4355,38 +4355,38 @@
         <v>33</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>25</v>
+      <c r="E114" s="11">
+        <v>52766</v>
       </c>
       <c r="F114" s="11">
-        <v>52766</v>
+        <v>36377</v>
       </c>
       <c r="G114" s="11">
-        <v>36377</v>
+        <v>59635</v>
       </c>
       <c r="H114" s="11">
-        <v>59635</v>
+        <v>90609</v>
       </c>
       <c r="I114" s="11">
-        <v>90609</v>
+        <v>103430</v>
       </c>
       <c r="J114" s="11">
-        <v>103430</v>
+        <v>128170</v>
       </c>
       <c r="K114" s="11">
-        <v>128170</v>
+        <v>28336</v>
       </c>
       <c r="L114" s="11">
-        <v>28336</v>
-      </c>
-      <c r="M114" s="11">
         <v>85297</v>
       </c>
-      <c r="N114" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M114" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N114" s="11">
+        <v>15965</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>38</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>39</v>
       </c>
@@ -4434,37 +4434,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>70646</v>
+        <v>79013</v>
       </c>
       <c r="F116" s="11">
-        <v>79013</v>
-      </c>
-      <c r="G116" s="11">
         <v>71985</v>
       </c>
-      <c r="H116" s="11" t="s">
-        <v>25</v>
+      <c r="G116" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" s="11">
+        <v>252984</v>
       </c>
       <c r="I116" s="11">
-        <v>252984</v>
+        <v>131759</v>
       </c>
       <c r="J116" s="11">
-        <v>131759</v>
+        <v>119084</v>
       </c>
       <c r="K116" s="11">
-        <v>119084</v>
+        <v>233416</v>
       </c>
       <c r="L116" s="11">
-        <v>233416</v>
+        <v>158076</v>
       </c>
       <c r="M116" s="11">
-        <v>158076</v>
+        <v>238987</v>
       </c>
       <c r="N116" s="11">
-        <v>238987</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>96480</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>40</v>
       </c>
@@ -4473,37 +4473,37 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H117" s="9">
+        <v>31</v>
+      </c>
+      <c r="G117" s="9">
         <v>182149</v>
       </c>
+      <c r="H117" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K117" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L117" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M117" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N117" s="9">
+        <v>31</v>
+      </c>
+      <c r="M117" s="9">
         <v>390635</v>
       </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N117" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>41</v>
       </c>
@@ -4512,74 +4512,74 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F118" s="11">
+        <v>0</v>
       </c>
       <c r="G118" s="11">
         <v>0</v>
       </c>
-      <c r="H118" s="11">
-        <v>0</v>
+      <c r="H118" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L118" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N118" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
-        <v>117269</v>
+        <v>177561</v>
       </c>
       <c r="F119" s="15">
-        <v>177561</v>
+        <v>153086</v>
       </c>
       <c r="G119" s="15">
-        <v>153086</v>
+        <v>330155</v>
       </c>
       <c r="H119" s="15">
-        <v>330155</v>
+        <v>428778</v>
       </c>
       <c r="I119" s="15">
-        <v>428778</v>
+        <v>282084</v>
       </c>
       <c r="J119" s="15">
-        <v>282084</v>
+        <v>291740</v>
       </c>
       <c r="K119" s="15">
-        <v>291740</v>
+        <v>374903</v>
       </c>
       <c r="L119" s="15">
-        <v>374903</v>
+        <v>392467</v>
       </c>
       <c r="M119" s="15">
-        <v>392467</v>
+        <v>749828</v>
       </c>
       <c r="N119" s="15">
-        <v>749828</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>210156</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4594,7 +4594,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4609,7 +4609,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4624,7 +4624,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>48</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4676,46 +4676,46 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C125" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M125" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M125" s="9">
+        <v>0</v>
       </c>
       <c r="N125" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>32</v>
       </c>
@@ -4724,37 +4724,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G126" s="11">
+        <v>0</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K126" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L126" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N126" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>34</v>
       </c>
@@ -4763,37 +4763,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>10144</v>
+        <v>10008</v>
       </c>
       <c r="F127" s="9">
-        <v>10008</v>
+        <v>7654</v>
       </c>
       <c r="G127" s="9">
-        <v>7654</v>
+        <v>12590</v>
       </c>
       <c r="H127" s="9">
-        <v>12590</v>
+        <v>6351</v>
       </c>
       <c r="I127" s="9">
-        <v>6351</v>
+        <v>14134</v>
       </c>
       <c r="J127" s="9">
-        <v>14134</v>
+        <v>13042</v>
       </c>
       <c r="K127" s="9">
-        <v>13042</v>
+        <v>20100</v>
       </c>
       <c r="L127" s="9">
-        <v>20100</v>
+        <v>11270</v>
       </c>
       <c r="M127" s="9">
-        <v>11270</v>
+        <v>21672</v>
       </c>
       <c r="N127" s="9">
-        <v>21672</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11667</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>35</v>
       </c>
@@ -4802,37 +4802,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>6910</v>
+        <v>12457</v>
       </c>
       <c r="F128" s="11">
-        <v>12457</v>
+        <v>13272</v>
       </c>
       <c r="G128" s="11">
-        <v>13272</v>
+        <v>12248</v>
       </c>
       <c r="H128" s="11">
-        <v>12248</v>
+        <v>8620</v>
       </c>
       <c r="I128" s="11">
-        <v>8620</v>
+        <v>19355</v>
       </c>
       <c r="J128" s="11">
-        <v>19355</v>
+        <v>15534</v>
       </c>
       <c r="K128" s="11">
-        <v>15534</v>
+        <v>19154</v>
       </c>
       <c r="L128" s="11">
-        <v>19154</v>
+        <v>19750</v>
       </c>
       <c r="M128" s="11">
-        <v>19750</v>
+        <v>34865</v>
       </c>
       <c r="N128" s="11">
-        <v>34865</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19736</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>36</v>
       </c>
@@ -4841,37 +4841,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>16033</v>
+        <v>26394</v>
       </c>
       <c r="F129" s="9">
-        <v>26394</v>
+        <v>31827</v>
       </c>
       <c r="G129" s="9">
-        <v>31827</v>
+        <v>36219</v>
       </c>
       <c r="H129" s="9">
-        <v>36219</v>
+        <v>28299</v>
       </c>
       <c r="I129" s="9">
-        <v>28299</v>
+        <v>33732</v>
       </c>
       <c r="J129" s="9">
-        <v>33732</v>
+        <v>32438</v>
       </c>
       <c r="K129" s="9">
-        <v>32438</v>
+        <v>32270</v>
       </c>
       <c r="L129" s="9">
-        <v>32270</v>
+        <v>55004</v>
       </c>
       <c r="M129" s="9">
-        <v>55004</v>
+        <v>57392</v>
       </c>
       <c r="N129" s="9">
-        <v>57392</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46404</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>37</v>
       </c>
@@ -4879,38 +4879,38 @@
         <v>33</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>25</v>
+      <c r="E130" s="11">
+        <v>48214</v>
       </c>
       <c r="F130" s="11">
-        <v>48214</v>
+        <v>27788</v>
       </c>
       <c r="G130" s="11">
-        <v>27788</v>
+        <v>39779</v>
       </c>
       <c r="H130" s="11">
-        <v>39779</v>
+        <v>37623</v>
       </c>
       <c r="I130" s="11">
-        <v>37623</v>
+        <v>71949</v>
       </c>
       <c r="J130" s="11">
-        <v>71949</v>
+        <v>65042</v>
       </c>
       <c r="K130" s="11">
-        <v>65042</v>
+        <v>74614</v>
       </c>
       <c r="L130" s="11">
-        <v>74614</v>
-      </c>
-      <c r="M130" s="11">
         <v>49307</v>
       </c>
-      <c r="N130" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M130" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" s="11">
+        <v>46750</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>38</v>
       </c>
@@ -4925,19 +4925,19 @@
         <v>0</v>
       </c>
       <c r="G131" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H131" s="9">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="I131" s="9">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="J131" s="9">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="K131" s="9">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="L131" s="9">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>39</v>
       </c>
@@ -4958,37 +4958,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>78545</v>
+        <v>78551</v>
       </c>
       <c r="F132" s="11">
-        <v>78551</v>
-      </c>
-      <c r="G132" s="11">
         <v>51322</v>
       </c>
-      <c r="H132" s="11" t="s">
-        <v>25</v>
+      <c r="G132" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" s="11">
+        <v>204694</v>
       </c>
       <c r="I132" s="11">
-        <v>204694</v>
+        <v>126485</v>
       </c>
       <c r="J132" s="11">
-        <v>126485</v>
+        <v>104482</v>
       </c>
       <c r="K132" s="11">
-        <v>104482</v>
+        <v>194272</v>
       </c>
       <c r="L132" s="11">
-        <v>194272</v>
+        <v>111086</v>
       </c>
       <c r="M132" s="11">
-        <v>111086</v>
+        <v>247125</v>
       </c>
       <c r="N132" s="11">
-        <v>247125</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114619</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>40</v>
       </c>
@@ -4997,37 +4997,37 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H133" s="9">
+        <v>31</v>
+      </c>
+      <c r="G133" s="9">
         <v>149936</v>
       </c>
+      <c r="H133" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M133" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N133" s="9">
+        <v>31</v>
+      </c>
+      <c r="M133" s="9">
         <v>285141</v>
       </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N133" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>41</v>
       </c>
@@ -5036,74 +5036,74 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F134" s="11">
+        <v>0</v>
       </c>
       <c r="G134" s="11">
         <v>0</v>
       </c>
-      <c r="H134" s="11">
-        <v>0</v>
+      <c r="H134" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N134" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>111632</v>
+        <v>175624</v>
       </c>
       <c r="F135" s="15">
-        <v>175624</v>
+        <v>131863</v>
       </c>
       <c r="G135" s="15">
-        <v>131863</v>
+        <v>250799</v>
       </c>
       <c r="H135" s="15">
-        <v>250799</v>
+        <v>285879</v>
       </c>
       <c r="I135" s="15">
-        <v>285879</v>
+        <v>265805</v>
       </c>
       <c r="J135" s="15">
-        <v>265805</v>
+        <v>230620</v>
       </c>
       <c r="K135" s="15">
-        <v>230620</v>
+        <v>340410</v>
       </c>
       <c r="L135" s="15">
-        <v>340410</v>
+        <v>246417</v>
       </c>
       <c r="M135" s="15">
-        <v>246417</v>
+        <v>646195</v>
       </c>
       <c r="N135" s="15">
-        <v>646195</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239176</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5118,7 +5118,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5133,7 +5133,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5148,7 +5148,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>49</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5200,46 +5200,46 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C141" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M141" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="M141" s="9">
+        <v>1453</v>
       </c>
       <c r="N141" s="9">
         <v>1453</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>32</v>
       </c>
@@ -5248,37 +5248,37 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" s="11">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G142" s="11">
+        <v>0</v>
+      </c>
+      <c r="H142" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M142" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N142" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>34</v>
       </c>
@@ -5287,37 +5287,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>9562</v>
+        <v>8742</v>
       </c>
       <c r="F143" s="9">
-        <v>8742</v>
+        <v>6000</v>
       </c>
       <c r="G143" s="9">
-        <v>6000</v>
+        <v>10723</v>
       </c>
       <c r="H143" s="9">
-        <v>10723</v>
+        <v>21548</v>
       </c>
       <c r="I143" s="9">
-        <v>21548</v>
+        <v>21402</v>
       </c>
       <c r="J143" s="9">
-        <v>21402</v>
+        <v>19274</v>
       </c>
       <c r="K143" s="9">
-        <v>19274</v>
+        <v>22032</v>
       </c>
       <c r="L143" s="9">
-        <v>22032</v>
+        <v>30957</v>
       </c>
       <c r="M143" s="9">
-        <v>30957</v>
+        <v>25914</v>
       </c>
       <c r="N143" s="9">
-        <v>25914</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30637</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>35</v>
       </c>
@@ -5326,37 +5326,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>19953</v>
+        <v>17470</v>
       </c>
       <c r="F144" s="11">
-        <v>17470</v>
+        <v>8114</v>
       </c>
       <c r="G144" s="11">
-        <v>8114</v>
+        <v>21309</v>
       </c>
       <c r="H144" s="11">
-        <v>21309</v>
+        <v>12689</v>
       </c>
       <c r="I144" s="11">
-        <v>12689</v>
+        <v>6798</v>
       </c>
       <c r="J144" s="11">
-        <v>6798</v>
+        <v>3172</v>
       </c>
       <c r="K144" s="11">
-        <v>3172</v>
+        <v>42256</v>
       </c>
       <c r="L144" s="11">
-        <v>42256</v>
+        <v>56704</v>
       </c>
       <c r="M144" s="11">
-        <v>56704</v>
+        <v>63149</v>
       </c>
       <c r="N144" s="11">
-        <v>63149</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66887</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>36</v>
       </c>
@@ -5365,37 +5365,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>8814</v>
+        <v>9040</v>
       </c>
       <c r="F145" s="9">
-        <v>9040</v>
+        <v>13109</v>
       </c>
       <c r="G145" s="9">
-        <v>13109</v>
+        <v>22504</v>
       </c>
       <c r="H145" s="9">
-        <v>22504</v>
+        <v>62214</v>
       </c>
       <c r="I145" s="9">
-        <v>62214</v>
+        <v>47925</v>
       </c>
       <c r="J145" s="9">
-        <v>47925</v>
+        <v>37151</v>
       </c>
       <c r="K145" s="9">
-        <v>37151</v>
+        <v>36936</v>
       </c>
       <c r="L145" s="9">
-        <v>36936</v>
+        <v>76633</v>
       </c>
       <c r="M145" s="9">
-        <v>76633</v>
+        <v>80055</v>
       </c>
       <c r="N145" s="9">
-        <v>80055</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91497</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>37</v>
       </c>
@@ -5403,38 +5403,38 @@
         <v>33</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>25</v>
+      <c r="E146" s="11">
+        <v>5640</v>
       </c>
       <c r="F146" s="11">
-        <v>5640</v>
+        <v>14229</v>
       </c>
       <c r="G146" s="11">
-        <v>14229</v>
+        <v>34085</v>
       </c>
       <c r="H146" s="11">
-        <v>34085</v>
+        <v>87071</v>
       </c>
       <c r="I146" s="11">
-        <v>87071</v>
+        <v>118552</v>
       </c>
       <c r="J146" s="11">
-        <v>118552</v>
+        <v>181680</v>
       </c>
       <c r="K146" s="11">
-        <v>181680</v>
+        <v>135402</v>
       </c>
       <c r="L146" s="11">
-        <v>135402</v>
-      </c>
-      <c r="M146" s="11">
         <v>171392</v>
       </c>
-      <c r="N146" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" s="11">
+        <v>193260</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>38</v>
       </c>
@@ -5443,22 +5443,22 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="F147" s="9">
         <v>2565</v>
       </c>
       <c r="G147" s="9">
-        <v>2565</v>
+        <v>2539</v>
       </c>
       <c r="H147" s="9">
-        <v>2539</v>
+        <v>2247</v>
       </c>
       <c r="I147" s="9">
-        <v>2247</v>
+        <v>2097</v>
       </c>
       <c r="J147" s="9">
-        <v>2097</v>
+        <v>2015</v>
       </c>
       <c r="K147" s="9">
         <v>2015</v>
@@ -5473,7 +5473,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>39</v>
       </c>
@@ -5482,37 +5482,37 @@
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
-        <v>15595</v>
+        <v>16057</v>
       </c>
       <c r="F148" s="11">
-        <v>16057</v>
-      </c>
-      <c r="G148" s="11">
         <v>36720</v>
       </c>
-      <c r="H148" s="11" t="s">
-        <v>25</v>
+      <c r="G148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" s="11">
+        <v>64347</v>
       </c>
       <c r="I148" s="11">
-        <v>64347</v>
+        <v>69621</v>
       </c>
       <c r="J148" s="11">
-        <v>69621</v>
+        <v>84223</v>
       </c>
       <c r="K148" s="11">
-        <v>84223</v>
+        <v>123367</v>
       </c>
       <c r="L148" s="11">
-        <v>123367</v>
+        <v>170357</v>
       </c>
       <c r="M148" s="11">
-        <v>170357</v>
+        <v>162219</v>
       </c>
       <c r="N148" s="11">
-        <v>162219</v>
-      </c>
-    </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+        <v>144080</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>40</v>
       </c>
@@ -5520,38 +5520,38 @@
         <v>33</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9">
-        <v>382</v>
+      <c r="E149" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H149" s="9">
+        <v>31</v>
+      </c>
+      <c r="G149" s="9">
         <v>48270</v>
       </c>
+      <c r="H149" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M149" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N149" s="9">
+        <v>31</v>
+      </c>
+      <c r="M149" s="9">
         <v>224046</v>
       </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N149" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>41</v>
       </c>
@@ -5560,74 +5560,74 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F150" s="11">
+        <v>0</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
       </c>
-      <c r="H150" s="11">
-        <v>0</v>
+      <c r="H150" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K150" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L150" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M150" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N150" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15">
-        <v>56872</v>
+        <v>59514</v>
       </c>
       <c r="F151" s="15">
-        <v>59514</v>
+        <v>80737</v>
       </c>
       <c r="G151" s="15">
-        <v>80737</v>
+        <v>139430</v>
       </c>
       <c r="H151" s="15">
-        <v>139430</v>
+        <v>250116</v>
       </c>
       <c r="I151" s="15">
-        <v>250116</v>
+        <v>266395</v>
       </c>
       <c r="J151" s="15">
-        <v>266395</v>
+        <v>327515</v>
       </c>
       <c r="K151" s="15">
-        <v>327515</v>
+        <v>362008</v>
       </c>
       <c r="L151" s="15">
-        <v>362008</v>
+        <v>508058</v>
       </c>
       <c r="M151" s="15">
-        <v>508058</v>
+        <v>558851</v>
       </c>
       <c r="N151" s="15">
-        <v>558851</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>529829</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5642,7 +5642,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5657,7 +5657,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5672,7 +5672,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>50</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5724,295 +5724,319 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C157" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
-        <v>47778</v>
-      </c>
-      <c r="F157" s="9">
-        <v>51153</v>
-      </c>
-      <c r="G157" s="9">
-        <v>52169</v>
-      </c>
-      <c r="H157" s="9">
-        <v>51784</v>
-      </c>
-      <c r="I157" s="9">
-        <v>63630</v>
-      </c>
-      <c r="J157" s="9">
-        <v>77177</v>
-      </c>
-      <c r="K157" s="9">
-        <v>79278</v>
-      </c>
-      <c r="L157" s="9">
-        <v>78598</v>
-      </c>
-      <c r="M157" s="9">
-        <v>99271</v>
+      <c r="E157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="N157" s="9">
-        <v>101210</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>820440</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>498775</v>
+        <v>51153</v>
       </c>
       <c r="F158" s="11">
-        <v>523811</v>
+        <v>52169</v>
       </c>
       <c r="G158" s="11">
-        <v>544372</v>
+        <v>51784</v>
       </c>
       <c r="H158" s="11">
-        <v>491787</v>
+        <v>63630</v>
       </c>
       <c r="I158" s="11">
-        <v>667095</v>
+        <v>77177</v>
       </c>
       <c r="J158" s="11">
-        <v>667070</v>
+        <v>79278</v>
       </c>
       <c r="K158" s="11">
-        <v>1194308</v>
+        <v>78598</v>
       </c>
       <c r="L158" s="11">
-        <v>1310744</v>
+        <v>99271</v>
       </c>
       <c r="M158" s="11">
-        <v>1019642</v>
+        <v>101210</v>
       </c>
       <c r="N158" s="11">
-        <v>996030</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>106748</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C159" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>507095</v>
+        <v>523811</v>
       </c>
       <c r="F159" s="9">
-        <v>645998</v>
+        <v>544372</v>
       </c>
       <c r="G159" s="9">
-        <v>880234</v>
+        <v>491787</v>
       </c>
       <c r="H159" s="9">
-        <v>689693</v>
+        <v>667095</v>
       </c>
       <c r="I159" s="9">
-        <v>1195368</v>
+        <v>667070</v>
       </c>
       <c r="J159" s="9">
-        <v>1239347</v>
+        <v>1194308</v>
       </c>
       <c r="K159" s="9">
-        <v>1242417</v>
+        <v>1310744</v>
       </c>
       <c r="L159" s="9">
-        <v>1240227</v>
+        <v>1019642</v>
       </c>
       <c r="M159" s="9">
-        <v>1512283</v>
+        <v>996030</v>
       </c>
       <c r="N159" s="9">
-        <v>1856420</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1042046</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D160" s="11"/>
-      <c r="E160" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>25</v>
+      <c r="E160" s="11">
+        <v>645998</v>
+      </c>
+      <c r="F160" s="11">
+        <v>880234</v>
       </c>
       <c r="G160" s="11">
-        <v>678455</v>
+        <v>689693</v>
       </c>
       <c r="H160" s="11">
-        <v>1104650</v>
+        <v>1195368</v>
       </c>
       <c r="I160" s="11">
-        <v>2525563</v>
+        <v>1239347</v>
       </c>
       <c r="J160" s="11">
-        <v>2692945</v>
+        <v>1242417</v>
       </c>
       <c r="K160" s="11">
-        <v>2846865</v>
+        <v>1240227</v>
       </c>
       <c r="L160" s="11">
-        <v>2920431</v>
+        <v>1512283</v>
       </c>
       <c r="M160" s="11">
-        <v>2990063</v>
-      </c>
-      <c r="N160" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1856420</v>
+      </c>
+      <c r="N160" s="11">
+        <v>1992756</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D161" s="9"/>
-      <c r="E161" s="9">
-        <v>170487</v>
+      <c r="E161" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F161" s="9">
-        <v>170487</v>
+        <v>678455</v>
       </c>
       <c r="G161" s="9">
-        <v>170421</v>
+        <v>1104650</v>
       </c>
       <c r="H161" s="9">
-        <v>170421</v>
+        <v>2525563</v>
       </c>
       <c r="I161" s="9">
-        <v>170448</v>
+        <v>2692945</v>
       </c>
       <c r="J161" s="9">
-        <v>170524</v>
+        <v>2846865</v>
       </c>
       <c r="K161" s="9">
-        <v>170460</v>
+        <v>2920431</v>
       </c>
       <c r="L161" s="9">
-        <v>170474</v>
-      </c>
-      <c r="M161" s="9">
-        <v>170474</v>
+        <v>2990063</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="N161" s="9">
-        <v>170474</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3714890</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>84941</v>
+        <v>170487</v>
       </c>
       <c r="F162" s="11">
-        <v>91009</v>
+        <v>170421</v>
       </c>
       <c r="G162" s="11">
-        <v>102533</v>
-      </c>
-      <c r="H162" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I162" s="11" t="s">
-        <v>25</v>
+        <v>170421</v>
+      </c>
+      <c r="H162" s="11">
+        <v>170448</v>
+      </c>
+      <c r="I162" s="11">
+        <v>170524</v>
       </c>
       <c r="J162" s="11">
-        <v>138101</v>
+        <v>170460</v>
       </c>
       <c r="K162" s="11">
-        <v>159679</v>
+        <v>170474</v>
       </c>
       <c r="L162" s="11">
-        <v>160575</v>
+        <v>170474</v>
       </c>
       <c r="M162" s="11">
-        <v>264512</v>
+        <v>170474</v>
       </c>
       <c r="N162" s="11">
-        <v>249927</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>170474</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C163" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>25</v>
+      <c r="E163" s="9">
+        <v>91009</v>
+      </c>
+      <c r="F163" s="9">
+        <v>102533</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N163" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I163" s="9">
+        <v>138101</v>
+      </c>
+      <c r="J163" s="9">
+        <v>159679</v>
+      </c>
+      <c r="K163" s="9">
+        <v>160575</v>
+      </c>
+      <c r="L163" s="9">
+        <v>264512</v>
+      </c>
+      <c r="M163" s="9">
+        <v>249927</v>
+      </c>
+      <c r="N163" s="9">
+        <v>301192</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B164" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M164" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N164" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -6027,7 +6051,7 @@
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6042,347 +6066,347 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B167" s="7" t="s">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B168" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6" t="s">
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F167" s="6" t="s">
+      <c r="F168" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G167" s="6" t="s">
+      <c r="G168" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H167" s="6" t="s">
+      <c r="H168" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I167" s="6" t="s">
+      <c r="I168" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J167" s="6" t="s">
+      <c r="J168" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K167" s="6" t="s">
+      <c r="K168" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L167" s="6" t="s">
+      <c r="L168" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M167" s="6" t="s">
+      <c r="M168" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N167" s="6" t="s">
+      <c r="N168" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B169" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C169" s="9" t="s">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N169" s="9">
+      <c r="D170" s="9"/>
+      <c r="E170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M170" s="9">
         <v>820440</v>
       </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B170" s="10" t="s">
+      <c r="N170" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B171" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C171" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11">
-        <v>52997</v>
-      </c>
-      <c r="F170" s="11">
+      <c r="D171" s="11"/>
+      <c r="E171" s="11">
         <v>53004</v>
       </c>
-      <c r="G170" s="11">
+      <c r="F171" s="11">
         <v>52998</v>
       </c>
-      <c r="H170" s="11">
+      <c r="G171" s="11">
         <v>65211</v>
       </c>
-      <c r="I170" s="11">
+      <c r="H171" s="11">
         <v>85998</v>
       </c>
-      <c r="J170" s="11">
+      <c r="I171" s="11">
         <v>82675</v>
       </c>
-      <c r="K170" s="11">
+      <c r="J171" s="11">
         <v>86001</v>
       </c>
-      <c r="L170" s="11">
+      <c r="K171" s="11">
         <v>109999</v>
       </c>
-      <c r="M170" s="11">
+      <c r="L171" s="11">
         <v>110000</v>
       </c>
-      <c r="N170" s="11">
+      <c r="M171" s="11">
         <v>109998</v>
       </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B171" s="8" t="s">
+      <c r="N171" s="11">
+        <v>142998</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B172" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C172" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9">
-        <v>526098</v>
-      </c>
-      <c r="F171" s="9">
+      <c r="D172" s="9"/>
+      <c r="E172" s="9">
         <v>571052</v>
       </c>
-      <c r="G171" s="9">
+      <c r="F172" s="9">
         <v>599969</v>
       </c>
-      <c r="H171" s="9">
+      <c r="G172" s="9">
         <v>700003</v>
       </c>
-      <c r="I171" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J171" s="9">
+      <c r="H172" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="9">
         <v>1299990</v>
       </c>
-      <c r="K171" s="9">
+      <c r="J172" s="9">
         <v>1410065</v>
       </c>
-      <c r="L171" s="9">
+      <c r="K172" s="9">
         <v>998406</v>
       </c>
-      <c r="M171" s="9">
+      <c r="L172" s="9">
         <v>1050017</v>
       </c>
-      <c r="N171" s="9">
+      <c r="M172" s="9">
         <v>1049756</v>
       </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B172" s="10" t="s">
+      <c r="N172" s="9">
+        <v>1050007</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B173" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C173" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11">
-        <v>750000</v>
-      </c>
-      <c r="F172" s="11">
+      <c r="D173" s="11"/>
+      <c r="E173" s="11">
         <v>889855</v>
       </c>
-      <c r="G172" s="11">
+      <c r="F173" s="11">
         <v>884923</v>
       </c>
-      <c r="H172" s="11">
+      <c r="G173" s="11">
         <v>1361327</v>
       </c>
-      <c r="I172" s="11">
+      <c r="H173" s="11">
         <v>1250005</v>
       </c>
-      <c r="J172" s="11">
+      <c r="I173" s="11">
         <v>1249952</v>
       </c>
-      <c r="K172" s="11">
+      <c r="J173" s="11">
         <v>1250014</v>
       </c>
-      <c r="L172" s="11">
+      <c r="K173" s="11">
         <v>1620413</v>
       </c>
-      <c r="M172" s="11">
+      <c r="L173" s="11">
         <v>2049983</v>
       </c>
-      <c r="N172" s="11">
+      <c r="M173" s="11">
         <v>2068855</v>
       </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B173" s="8" t="s">
+      <c r="N173" s="11">
+        <v>2099978</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C174" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F173" s="9">
+      <c r="D174" s="9"/>
+      <c r="E174" s="9">
         <v>980161</v>
       </c>
-      <c r="G173" s="9">
+      <c r="F174" s="9">
         <v>1880045</v>
       </c>
-      <c r="H173" s="9">
+      <c r="G174" s="9">
         <v>2389510</v>
       </c>
-      <c r="I173" s="9">
+      <c r="H174" s="9">
         <v>2779417</v>
       </c>
-      <c r="J173" s="9">
+      <c r="I174" s="9">
         <v>2933103</v>
       </c>
-      <c r="K173" s="9">
+      <c r="J174" s="9">
         <v>3059534</v>
       </c>
-      <c r="L173" s="9">
+      <c r="K174" s="9">
         <v>3132088</v>
       </c>
-      <c r="M173" s="9">
+      <c r="L174" s="9">
         <v>5407100</v>
       </c>
-      <c r="N173" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B174" s="10" t="s">
+      <c r="M174" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N174" s="9">
+        <v>4149987</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B175" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C175" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11">
-        <v>91665</v>
-      </c>
-      <c r="F174" s="11">
+      <c r="D175" s="11"/>
+      <c r="E175" s="11">
         <v>113231</v>
       </c>
-      <c r="G174" s="11">
+      <c r="F175" s="11">
         <v>102665</v>
       </c>
-      <c r="H174" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I174" s="11">
+      <c r="G175" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H175" s="11">
         <v>126045</v>
       </c>
-      <c r="J174" s="11">
+      <c r="I175" s="11">
         <v>171638</v>
       </c>
-      <c r="K174" s="11">
+      <c r="J175" s="11">
         <v>165000</v>
       </c>
-      <c r="L174" s="11">
+      <c r="K175" s="11">
         <v>284999</v>
       </c>
-      <c r="M174" s="11">
+      <c r="L175" s="11">
         <v>285000</v>
       </c>
-      <c r="N174" s="11">
+      <c r="M175" s="11">
         <v>303888</v>
       </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B175" s="8" t="s">
+      <c r="N175" s="11">
+        <v>313500</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B176" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C176" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H175" s="9">
+      <c r="D176" s="9"/>
+      <c r="E176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="9">
         <v>121757</v>
       </c>
-      <c r="I175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N175" s="9">
+      <c r="H176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M176" s="9">
         <v>3654517</v>
       </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N176" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6397,7 +6421,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6412,347 +6436,347 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B179" s="7" t="s">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B180" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6" t="s">
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="F180" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G179" s="6" t="s">
+      <c r="G180" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H179" s="6" t="s">
+      <c r="H180" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I179" s="6" t="s">
+      <c r="I180" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J179" s="6" t="s">
+      <c r="J180" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K179" s="6" t="s">
+      <c r="K180" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L179" s="6" t="s">
+      <c r="L180" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M179" s="6" t="s">
+      <c r="M180" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N179" s="6" t="s">
+      <c r="N180" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B181" s="8" t="s">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B182" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C182" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D181" s="9"/>
-      <c r="E181" s="9">
-        <v>50062</v>
-      </c>
-      <c r="F181" s="9">
+      <c r="D182" s="9"/>
+      <c r="E182" s="9">
         <v>51934</v>
       </c>
-      <c r="G181" s="9">
+      <c r="F182" s="9">
         <v>53010</v>
       </c>
-      <c r="H181" s="9">
+      <c r="G182" s="9">
         <v>59149</v>
       </c>
-      <c r="I181" s="9">
+      <c r="H182" s="9">
         <v>71323</v>
       </c>
-      <c r="J181" s="9">
+      <c r="I182" s="9">
         <v>79212</v>
       </c>
-      <c r="K181" s="9">
+      <c r="J182" s="9">
         <v>86004</v>
       </c>
-      <c r="L181" s="9">
+      <c r="K182" s="9">
         <v>89516</v>
       </c>
-      <c r="M181" s="9">
+      <c r="L182" s="9">
         <v>113084</v>
       </c>
-      <c r="N181" s="9">
+      <c r="M182" s="9">
         <v>101135</v>
       </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B182" s="10" t="s">
+      <c r="N182" s="9">
+        <v>116298</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B183" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C183" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11">
-        <v>519237</v>
-      </c>
-      <c r="F182" s="11">
+      <c r="D183" s="11"/>
+      <c r="E183" s="11">
         <v>530853</v>
       </c>
-      <c r="G182" s="11">
+      <c r="F183" s="11">
         <v>600000</v>
       </c>
-      <c r="H182" s="11">
+      <c r="G183" s="11">
         <v>585945</v>
       </c>
-      <c r="I182" s="11">
+      <c r="H183" s="11">
         <v>667131</v>
       </c>
-      <c r="J182" s="11">
+      <c r="I183" s="11">
         <v>817115</v>
       </c>
-      <c r="K182" s="11">
+      <c r="J183" s="11">
         <v>1325766</v>
       </c>
-      <c r="L182" s="11">
+      <c r="K183" s="11">
         <v>991973</v>
       </c>
-      <c r="M182" s="11">
+      <c r="L183" s="11">
         <v>1156255</v>
       </c>
-      <c r="N182" s="11">
+      <c r="M183" s="11">
         <v>977103</v>
       </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B183" s="8" t="s">
+      <c r="N183" s="11">
+        <v>1090568</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B184" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C184" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D183" s="9"/>
-      <c r="E183" s="9">
-        <v>577849</v>
-      </c>
-      <c r="F183" s="9">
+      <c r="D184" s="9"/>
+      <c r="E184" s="9">
         <v>792875</v>
       </c>
-      <c r="G183" s="9">
+      <c r="F184" s="9">
         <v>1000000</v>
       </c>
-      <c r="H183" s="9">
+      <c r="G184" s="9">
         <v>1075131</v>
       </c>
-      <c r="I183" s="9">
+      <c r="H184" s="9">
         <v>1228575</v>
       </c>
-      <c r="J183" s="9">
+      <c r="I184" s="9">
         <v>1241014</v>
       </c>
-      <c r="K183" s="9">
+      <c r="J184" s="9">
         <v>1250019</v>
       </c>
-      <c r="L183" s="9">
+      <c r="K184" s="9">
         <v>1274889</v>
       </c>
-      <c r="M183" s="9">
+      <c r="L184" s="9">
         <v>1874710</v>
       </c>
-      <c r="N183" s="9">
+      <c r="M184" s="9">
         <v>1881582</v>
       </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B184" s="10" t="s">
+      <c r="N184" s="9">
+        <v>2027792</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B185" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C185" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F184" s="11">
+      <c r="D185" s="11"/>
+      <c r="E185" s="11">
         <v>1037641</v>
       </c>
-      <c r="G184" s="11">
+      <c r="F185" s="11">
         <v>1879981</v>
       </c>
-      <c r="H184" s="11">
+      <c r="G185" s="11">
         <v>1634171</v>
       </c>
-      <c r="I184" s="11">
+      <c r="H185" s="11">
         <v>2733634</v>
       </c>
-      <c r="J184" s="11">
+      <c r="I185" s="11">
         <v>2772174</v>
       </c>
-      <c r="K184" s="11">
+      <c r="J185" s="11">
         <v>3050035</v>
       </c>
-      <c r="L184" s="11">
+      <c r="K185" s="11">
         <v>2872752</v>
       </c>
-      <c r="M184" s="11">
+      <c r="L185" s="11">
         <v>3635137</v>
       </c>
-      <c r="N184" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B185" s="8" t="s">
+      <c r="M185" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N185" s="11">
+        <v>3740898</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B186" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C186" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H185" s="9">
+      <c r="D186" s="9"/>
+      <c r="E186" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" s="9">
         <v>174194</v>
       </c>
-      <c r="I185" s="9">
+      <c r="H186" s="9">
         <v>169866</v>
       </c>
-      <c r="J185" s="9">
+      <c r="I186" s="9">
         <v>171429</v>
       </c>
-      <c r="K185" s="9">
+      <c r="J186" s="9">
         <v>170124</v>
       </c>
-      <c r="L185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N185" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B186" s="10" t="s">
+      <c r="K186" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L186" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M186" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N186" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B187" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C187" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D186" s="11"/>
-      <c r="E186" s="11">
-        <v>89670</v>
-      </c>
-      <c r="F186" s="11">
+      <c r="D187" s="11"/>
+      <c r="E187" s="11">
         <v>110238</v>
       </c>
-      <c r="G186" s="11">
+      <c r="F187" s="11">
         <v>102928</v>
       </c>
-      <c r="H186" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I186" s="11">
+      <c r="G187" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H187" s="11">
         <v>120568</v>
       </c>
-      <c r="J186" s="11">
+      <c r="I187" s="11">
         <v>158583</v>
       </c>
-      <c r="K186" s="11">
+      <c r="J187" s="11">
         <v>165001</v>
       </c>
-      <c r="L186" s="11">
+      <c r="K187" s="11">
         <v>221489</v>
       </c>
-      <c r="M186" s="11">
+      <c r="L187" s="11">
         <v>327283</v>
       </c>
-      <c r="N186" s="11">
+      <c r="M187" s="11">
         <v>265878</v>
       </c>
-    </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B187" s="8" t="s">
+      <c r="N187" s="11">
+        <v>304305</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C188" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D187" s="9"/>
-      <c r="E187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H187" s="9">
+      <c r="D188" s="9"/>
+      <c r="E188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="9">
         <v>115831</v>
       </c>
-      <c r="I187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M187" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N187" s="9">
+      <c r="H188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M188" s="9">
         <v>3232048</v>
       </c>
-    </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N188" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6767,7 +6791,7 @@
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6782,386 +6806,386 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B191" s="7" t="s">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+    </row>
+    <row r="192" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B192" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6" t="s">
+      <c r="C192" s="6"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F191" s="6" t="s">
+      <c r="F192" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G191" s="6" t="s">
+      <c r="G192" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H191" s="6" t="s">
+      <c r="H192" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I191" s="6" t="s">
+      <c r="I192" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J191" s="6" t="s">
+      <c r="J192" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K191" s="6" t="s">
+      <c r="K192" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L191" s="6" t="s">
+      <c r="L192" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M191" s="6" t="s">
+      <c r="M192" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N191" s="6" t="s">
+      <c r="N192" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B193" s="8" t="s">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B194" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C193" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D193" s="9"/>
-      <c r="E193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M193" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N193" s="9">
+      <c r="D194" s="9"/>
+      <c r="E194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M194" s="9">
         <v>820440</v>
       </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B194" s="10" t="s">
+      <c r="N194" s="9">
+        <v>820440</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B195" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C194" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G194" s="11">
+      <c r="C195" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F195" s="11">
         <v>51784</v>
       </c>
-      <c r="H194" s="11">
+      <c r="G195" s="11">
         <v>63630</v>
       </c>
-      <c r="I194" s="11">
+      <c r="H195" s="11">
         <v>77177</v>
       </c>
-      <c r="J194" s="11">
+      <c r="I195" s="11">
         <v>79278</v>
       </c>
-      <c r="K194" s="11">
+      <c r="J195" s="11">
         <v>78598</v>
       </c>
-      <c r="L194" s="11">
+      <c r="K195" s="11">
         <v>99271</v>
       </c>
-      <c r="M194" s="11">
+      <c r="L195" s="11">
         <v>101210</v>
       </c>
-      <c r="N194" s="11">
+      <c r="M195" s="11">
         <v>106748</v>
       </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B195" s="8" t="s">
+      <c r="N195" s="11">
+        <v>119185</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B196" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C195" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D195" s="9"/>
-      <c r="E195" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G195" s="9">
+      <c r="C196" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D196" s="9"/>
+      <c r="E196" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F196" s="9">
         <v>491787</v>
       </c>
-      <c r="H195" s="9">
+      <c r="G196" s="9">
         <v>667095</v>
       </c>
-      <c r="I195" s="9">
+      <c r="H196" s="9">
         <v>667070</v>
       </c>
-      <c r="J195" s="9">
+      <c r="I196" s="9">
         <v>1194308</v>
       </c>
-      <c r="K195" s="9">
+      <c r="J196" s="9">
         <v>1310744</v>
       </c>
-      <c r="L195" s="9">
+      <c r="K196" s="9">
         <v>1019642</v>
       </c>
-      <c r="M195" s="9">
+      <c r="L196" s="9">
         <v>996030</v>
       </c>
-      <c r="N195" s="9">
+      <c r="M196" s="9">
         <v>1042063</v>
       </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B196" s="10" t="s">
+      <c r="N196" s="9">
+        <v>1031252</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B197" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C196" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G196" s="11">
+      <c r="C197" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F197" s="11">
         <v>689693</v>
       </c>
-      <c r="H196" s="11">
+      <c r="G197" s="11">
         <v>1195368</v>
       </c>
-      <c r="I196" s="11">
+      <c r="H197" s="11">
         <v>1239347</v>
       </c>
-      <c r="J196" s="11">
+      <c r="I197" s="11">
         <v>1242449</v>
       </c>
-      <c r="K196" s="11">
+      <c r="J197" s="11">
         <v>1240227</v>
       </c>
-      <c r="L196" s="11">
+      <c r="K197" s="11">
         <v>1512283</v>
       </c>
-      <c r="M196" s="11">
+      <c r="L197" s="11">
         <v>1856420</v>
       </c>
-      <c r="N196" s="11">
+      <c r="M197" s="11">
         <v>1992756</v>
       </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B197" s="8" t="s">
+      <c r="N197" s="11">
+        <v>2040749</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B198" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C197" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D197" s="9"/>
-      <c r="E197" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G197" s="9">
+      <c r="C198" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D198" s="9"/>
+      <c r="E198" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F198" s="9">
         <v>1104650</v>
       </c>
-      <c r="H197" s="9">
+      <c r="G198" s="9">
         <v>2525563</v>
       </c>
-      <c r="I197" s="9">
+      <c r="H198" s="9">
         <v>2692945</v>
       </c>
-      <c r="J197" s="9">
+      <c r="I198" s="9">
         <v>2846933</v>
       </c>
-      <c r="K197" s="9">
+      <c r="J198" s="9">
         <v>2920431</v>
       </c>
-      <c r="L197" s="9">
+      <c r="K198" s="9">
         <v>2990063</v>
       </c>
-      <c r="M197" s="9">
+      <c r="L198" s="9">
         <v>3608632</v>
       </c>
-      <c r="N197" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B198" s="10" t="s">
+      <c r="M198" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N198" s="9">
+        <v>3740999</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B199" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C198" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G198" s="11">
+      <c r="C199" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F199" s="11">
         <v>170421</v>
       </c>
-      <c r="H198" s="11">
+      <c r="G199" s="11">
         <v>170448</v>
       </c>
-      <c r="I198" s="11">
+      <c r="H199" s="11">
         <v>170524</v>
       </c>
-      <c r="J198" s="11">
+      <c r="I199" s="11">
         <v>170460</v>
       </c>
-      <c r="K198" s="11">
+      <c r="J199" s="11">
         <v>170474</v>
       </c>
-      <c r="L198" s="11">
+      <c r="K199" s="11">
         <v>170474</v>
       </c>
-      <c r="M198" s="11">
+      <c r="L199" s="11">
         <v>170474</v>
       </c>
-      <c r="N198" s="11">
+      <c r="M199" s="11">
         <v>170474</v>
       </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B199" s="8" t="s">
+      <c r="N199" s="11">
+        <v>170474</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B200" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C199" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D199" s="9"/>
-      <c r="E199" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G199" s="9">
+      <c r="C200" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D200" s="9"/>
+      <c r="E200" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F200" s="9">
         <v>102243</v>
       </c>
-      <c r="H199" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I199" s="9">
+      <c r="G200" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H200" s="9">
         <v>138101</v>
       </c>
-      <c r="J199" s="9">
+      <c r="I200" s="9">
         <v>159679</v>
       </c>
-      <c r="K199" s="9">
+      <c r="J200" s="9">
         <v>160575</v>
       </c>
-      <c r="L199" s="9">
+      <c r="K200" s="9">
         <v>264512</v>
       </c>
-      <c r="M199" s="9">
+      <c r="L200" s="9">
         <v>249927</v>
       </c>
-      <c r="N199" s="9">
+      <c r="M200" s="9">
         <v>301192</v>
       </c>
-    </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B200" s="10" t="s">
+      <c r="N200" s="9">
+        <v>306760</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B201" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C200" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H200" s="11">
+      <c r="C201" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" s="11">
         <v>134769</v>
       </c>
-      <c r="I200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M200" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N200" s="11">
+      <c r="H201" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I201" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J201" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K201" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L201" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M201" s="11">
         <v>3714906</v>
       </c>
-    </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-    </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N201" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7176,7 +7200,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7191,481 +7215,481 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B204" s="7" t="s">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B205" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6" t="s">
+      <c r="C205" s="6"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F204" s="6" t="s">
+      <c r="F205" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G204" s="6" t="s">
+      <c r="G205" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H204" s="6" t="s">
+      <c r="H205" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I204" s="6" t="s">
+      <c r="I205" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J204" s="6" t="s">
+      <c r="J205" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K204" s="6" t="s">
+      <c r="K205" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L204" s="6" t="s">
+      <c r="L205" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M204" s="6" t="s">
+      <c r="M205" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N204" s="6" t="s">
+      <c r="N205" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B206" s="8" t="s">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B207" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="9">
-        <v>0</v>
-      </c>
-      <c r="F206" s="9">
-        <v>0</v>
-      </c>
-      <c r="G206" s="9">
-        <v>0</v>
-      </c>
-      <c r="H206" s="9">
-        <v>0</v>
-      </c>
-      <c r="I206" s="9">
-        <v>0</v>
-      </c>
-      <c r="J206" s="9">
-        <v>0</v>
-      </c>
-      <c r="K206" s="9">
-        <v>0</v>
-      </c>
-      <c r="L206" s="9">
-        <v>0</v>
-      </c>
-      <c r="M206" s="9">
-        <v>0</v>
-      </c>
-      <c r="N206" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B207" s="10" t="s">
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9">
+        <v>0</v>
+      </c>
+      <c r="F207" s="9">
+        <v>0</v>
+      </c>
+      <c r="G207" s="9">
+        <v>0</v>
+      </c>
+      <c r="H207" s="9">
+        <v>0</v>
+      </c>
+      <c r="I207" s="9">
+        <v>0</v>
+      </c>
+      <c r="J207" s="9">
+        <v>0</v>
+      </c>
+      <c r="K207" s="9">
+        <v>0</v>
+      </c>
+      <c r="L207" s="9">
+        <v>0</v>
+      </c>
+      <c r="M207" s="9">
+        <v>0</v>
+      </c>
+      <c r="N207" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B208" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11">
-        <v>0</v>
-      </c>
-      <c r="F207" s="11">
-        <v>0</v>
-      </c>
-      <c r="G207" s="11">
-        <v>0</v>
-      </c>
-      <c r="H207" s="11">
-        <v>0</v>
-      </c>
-      <c r="I207" s="11">
-        <v>0</v>
-      </c>
-      <c r="J207" s="11">
-        <v>0</v>
-      </c>
-      <c r="K207" s="11">
-        <v>0</v>
-      </c>
-      <c r="L207" s="11">
-        <v>0</v>
-      </c>
-      <c r="M207" s="11">
-        <v>0</v>
-      </c>
-      <c r="N207" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B208" s="8" t="s">
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11">
+        <v>0</v>
+      </c>
+      <c r="F208" s="11">
+        <v>0</v>
+      </c>
+      <c r="G208" s="11">
+        <v>0</v>
+      </c>
+      <c r="H208" s="11">
+        <v>0</v>
+      </c>
+      <c r="I208" s="11">
+        <v>0</v>
+      </c>
+      <c r="J208" s="11">
+        <v>0</v>
+      </c>
+      <c r="K208" s="11">
+        <v>0</v>
+      </c>
+      <c r="L208" s="11">
+        <v>0</v>
+      </c>
+      <c r="M208" s="11">
+        <v>0</v>
+      </c>
+      <c r="N208" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B209" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="9">
-        <v>0</v>
-      </c>
-      <c r="F208" s="9">
-        <v>0</v>
-      </c>
-      <c r="G208" s="9">
-        <v>0</v>
-      </c>
-      <c r="H208" s="9">
-        <v>0</v>
-      </c>
-      <c r="I208" s="9">
-        <v>0</v>
-      </c>
-      <c r="J208" s="9">
-        <v>0</v>
-      </c>
-      <c r="K208" s="9">
-        <v>0</v>
-      </c>
-      <c r="L208" s="9">
-        <v>0</v>
-      </c>
-      <c r="M208" s="9">
-        <v>0</v>
-      </c>
-      <c r="N208" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B209" s="10" t="s">
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9">
+        <v>0</v>
+      </c>
+      <c r="F209" s="9">
+        <v>0</v>
+      </c>
+      <c r="G209" s="9">
+        <v>0</v>
+      </c>
+      <c r="H209" s="9">
+        <v>0</v>
+      </c>
+      <c r="I209" s="9">
+        <v>0</v>
+      </c>
+      <c r="J209" s="9">
+        <v>0</v>
+      </c>
+      <c r="K209" s="9">
+        <v>0</v>
+      </c>
+      <c r="L209" s="9">
+        <v>0</v>
+      </c>
+      <c r="M209" s="9">
+        <v>0</v>
+      </c>
+      <c r="N209" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B210" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11">
-        <v>0</v>
-      </c>
-      <c r="F209" s="11">
-        <v>0</v>
-      </c>
-      <c r="G209" s="11">
-        <v>0</v>
-      </c>
-      <c r="H209" s="11">
-        <v>0</v>
-      </c>
-      <c r="I209" s="11">
-        <v>0</v>
-      </c>
-      <c r="J209" s="11">
-        <v>0</v>
-      </c>
-      <c r="K209" s="11">
-        <v>0</v>
-      </c>
-      <c r="L209" s="11">
-        <v>0</v>
-      </c>
-      <c r="M209" s="11">
-        <v>0</v>
-      </c>
-      <c r="N209" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B210" s="8" t="s">
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11">
+        <v>0</v>
+      </c>
+      <c r="F210" s="11">
+        <v>0</v>
+      </c>
+      <c r="G210" s="11">
+        <v>0</v>
+      </c>
+      <c r="H210" s="11">
+        <v>0</v>
+      </c>
+      <c r="I210" s="11">
+        <v>0</v>
+      </c>
+      <c r="J210" s="11">
+        <v>0</v>
+      </c>
+      <c r="K210" s="11">
+        <v>0</v>
+      </c>
+      <c r="L210" s="11">
+        <v>0</v>
+      </c>
+      <c r="M210" s="11">
+        <v>0</v>
+      </c>
+      <c r="N210" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B211" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="9">
-        <v>0</v>
-      </c>
-      <c r="F210" s="9">
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9">
         <v>119422</v>
       </c>
-      <c r="G210" s="9">
-        <v>0</v>
-      </c>
-      <c r="H210" s="9">
+      <c r="F211" s="9">
+        <v>0</v>
+      </c>
+      <c r="G211" s="9">
         <v>175537</v>
       </c>
-      <c r="I210" s="9">
+      <c r="H211" s="9">
         <v>109755</v>
       </c>
-      <c r="J210" s="9">
+      <c r="I211" s="9">
         <v>21581</v>
       </c>
-      <c r="K210" s="9">
+      <c r="J211" s="9">
         <v>92691</v>
       </c>
-      <c r="L210" s="9">
+      <c r="K211" s="9">
         <v>108886</v>
       </c>
-      <c r="M210" s="9">
+      <c r="L211" s="9">
         <v>54971</v>
       </c>
-      <c r="N210" s="9">
+      <c r="M211" s="9">
         <v>99220</v>
       </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B211" s="10" t="s">
+      <c r="N211" s="9">
+        <v>212637</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B212" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11">
-        <v>132321</v>
-      </c>
-      <c r="F211" s="11">
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11">
         <v>128213</v>
       </c>
-      <c r="G211" s="11">
+      <c r="F212" s="11">
         <v>114241</v>
       </c>
-      <c r="H211" s="11">
+      <c r="G212" s="11">
         <v>161296</v>
       </c>
-      <c r="I211" s="11">
+      <c r="H212" s="11">
         <v>210376</v>
       </c>
-      <c r="J211" s="11">
+      <c r="I212" s="11">
         <v>398322</v>
       </c>
-      <c r="K211" s="11">
+      <c r="J212" s="11">
         <v>427194</v>
       </c>
-      <c r="L211" s="11">
+      <c r="K212" s="11">
         <v>363643</v>
       </c>
-      <c r="M211" s="11">
+      <c r="L212" s="11">
         <v>281980</v>
       </c>
-      <c r="N211" s="11">
+      <c r="M212" s="11">
         <v>860326</v>
       </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B212" s="8" t="s">
+      <c r="N212" s="11">
+        <v>270652</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B213" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="E212" s="9">
-        <v>7694</v>
-      </c>
-      <c r="F212" s="9">
+      <c r="C213" s="9"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9">
         <v>13223</v>
       </c>
-      <c r="G212" s="9">
+      <c r="F213" s="9">
         <v>10221</v>
       </c>
-      <c r="H212" s="9">
+      <c r="G213" s="9">
         <v>26998</v>
       </c>
-      <c r="I212" s="9">
+      <c r="H213" s="9">
         <v>19106</v>
       </c>
-      <c r="J212" s="9">
+      <c r="I213" s="9">
         <v>20712</v>
       </c>
-      <c r="K212" s="9">
+      <c r="J213" s="9">
         <v>20080</v>
       </c>
-      <c r="L212" s="9">
+      <c r="K213" s="9">
         <v>19496</v>
       </c>
-      <c r="M212" s="9">
+      <c r="L213" s="9">
         <v>23804</v>
       </c>
-      <c r="N212" s="9">
+      <c r="M213" s="9">
         <v>15361</v>
       </c>
-    </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B213" s="10" t="s">
+      <c r="N213" s="9">
+        <v>23093</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B214" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="11">
-        <v>178771</v>
-      </c>
-      <c r="F213" s="11">
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11">
         <v>213946</v>
       </c>
-      <c r="G213" s="11">
+      <c r="F214" s="11">
         <v>212790</v>
       </c>
-      <c r="H213" s="11">
+      <c r="G214" s="11">
         <v>288672</v>
       </c>
-      <c r="I213" s="11">
+      <c r="H214" s="11">
         <v>273106</v>
       </c>
-      <c r="J213" s="11">
+      <c r="I214" s="11">
         <v>281139</v>
       </c>
-      <c r="K213" s="11">
+      <c r="J214" s="11">
         <v>269930</v>
       </c>
-      <c r="L213" s="11">
+      <c r="K214" s="11">
         <v>367551</v>
       </c>
-      <c r="M213" s="11">
+      <c r="L214" s="11">
         <v>336724</v>
       </c>
-      <c r="N213" s="11">
+      <c r="M214" s="11">
         <v>456611</v>
       </c>
-    </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B214" s="8" t="s">
+      <c r="N214" s="11">
+        <v>411934</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B215" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="E214" s="9">
-        <v>0</v>
-      </c>
-      <c r="F214" s="9">
-        <v>0</v>
-      </c>
-      <c r="G214" s="9">
-        <v>0</v>
-      </c>
-      <c r="H214" s="9">
-        <v>0</v>
-      </c>
-      <c r="I214" s="9">
-        <v>0</v>
-      </c>
-      <c r="J214" s="9">
-        <v>0</v>
-      </c>
-      <c r="K214" s="9">
-        <v>0</v>
-      </c>
-      <c r="L214" s="9">
-        <v>0</v>
-      </c>
-      <c r="M214" s="9">
-        <v>0</v>
-      </c>
-      <c r="N214" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B215" s="10" t="s">
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9">
+        <v>0</v>
+      </c>
+      <c r="F215" s="9">
+        <v>0</v>
+      </c>
+      <c r="G215" s="9">
+        <v>0</v>
+      </c>
+      <c r="H215" s="9">
+        <v>0</v>
+      </c>
+      <c r="I215" s="9">
+        <v>0</v>
+      </c>
+      <c r="J215" s="9">
+        <v>0</v>
+      </c>
+      <c r="K215" s="9">
+        <v>0</v>
+      </c>
+      <c r="L215" s="9">
+        <v>0</v>
+      </c>
+      <c r="M215" s="9">
+        <v>0</v>
+      </c>
+      <c r="N215" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B216" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11">
-        <v>265564</v>
-      </c>
-      <c r="F215" s="11">
+      <c r="C216" s="11"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="11">
         <v>162057</v>
       </c>
-      <c r="G215" s="11">
+      <c r="F216" s="11">
         <v>335987</v>
       </c>
-      <c r="H215" s="11">
+      <c r="G216" s="11">
         <v>326394</v>
       </c>
-      <c r="I215" s="11">
+      <c r="H216" s="11">
         <v>262380</v>
       </c>
-      <c r="J215" s="11">
+      <c r="I216" s="11">
         <v>380924</v>
       </c>
-      <c r="K215" s="11">
+      <c r="J216" s="11">
         <v>386291</v>
       </c>
-      <c r="L215" s="11">
+      <c r="K216" s="11">
         <v>444986</v>
       </c>
-      <c r="M215" s="11">
+      <c r="L216" s="11">
         <v>794406</v>
       </c>
-      <c r="N215" s="11">
+      <c r="M216" s="11">
         <v>214327</v>
       </c>
-    </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B216" s="14" t="s">
+      <c r="N216" s="11">
+        <v>422171</v>
+      </c>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B217" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15">
-        <v>584350</v>
-      </c>
-      <c r="F216" s="15">
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15">
         <v>636861</v>
       </c>
-      <c r="G216" s="15">
+      <c r="F217" s="15">
         <v>673239</v>
       </c>
-      <c r="H216" s="15">
+      <c r="G217" s="15">
         <v>978897</v>
       </c>
-      <c r="I216" s="15">
+      <c r="H217" s="15">
         <v>874723</v>
       </c>
-      <c r="J216" s="15">
+      <c r="I217" s="15">
         <v>1102678</v>
       </c>
-      <c r="K216" s="15">
+      <c r="J217" s="15">
         <v>1196186</v>
       </c>
-      <c r="L216" s="15">
+      <c r="K217" s="15">
         <v>1304562</v>
       </c>
-      <c r="M216" s="15">
+      <c r="L217" s="15">
         <v>1491885</v>
       </c>
-      <c r="N216" s="15">
+      <c r="M217" s="15">
         <v>1645845</v>
       </c>
-    </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-    </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N217" s="15">
+        <v>1340487</v>
+      </c>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -7680,7 +7704,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -7695,14 +7719,12 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B220" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6"/>
-      <c r="E220" s="6"/>
-      <c r="F220" s="6"/>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
@@ -7712,12 +7734,14 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
+    <row r="221" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B221" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
@@ -7727,126 +7751,141 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B222" s="8" t="s">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B223" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C223" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-    </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B223" s="10" t="s">
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B224" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C224" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
-      <c r="F223" s="11"/>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B224" s="8" t="s">
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B225" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C225" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D224" s="9"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="10" t="s">
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B226" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C226" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
-      <c r="F225" s="11"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="8" t="s">
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B227" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C227" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D226" s="9"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B227" s="10" t="s">
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B228" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C228" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B228" s="8" t="s">
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B229" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C229" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D228" s="9"/>
-      <c r="E228" s="9"/>
-      <c r="F228" s="9"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B229" s="10" t="s">
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B230" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C230" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-      <c r="F229" s="11"/>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B230" s="8" t="s">
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B231" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C231" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D230" s="9"/>
-      <c r="E230" s="9"/>
-      <c r="F230" s="9"/>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B231" s="10" t="s">
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B232" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C231" s="11" t="s">
+      <c r="C232" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-      <c r="F231" s="11"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B232" s="8" t="s">
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B233" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C233" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D232" s="9"/>
-      <c r="E232" s="9"/>
-      <c r="F232" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
